--- a/csv/Planilla_de_Cursos_Prim_2019_Fechas.xlsx
+++ b/csv/Planilla_de_Cursos_Prim_2019_Fechas.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_A890834B_38EF_458D_8A0D_C59B51E836C4_.wvu.FilterData" vbProcedure="false">Sheet1!$A$6:$M$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_A890834B_38EF_458D_8A0D_C59B51E836C4_.wvu.FilterData" vbProcedure="false">Sheet1!$A$6:$M$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t xml:space="preserve">Año</t>
   </si>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">CC3001: Algoritmos y Estruc. De Datos</t>
   </si>
   <si>
-    <t xml:space="preserve">J. Barbay</t>
+    <t xml:space="preserve">Jérémy Barbay</t>
   </si>
   <si>
     <t xml:space="preserve">27/09/2019</t>
@@ -171,7 +171,7 @@
     <t xml:space="preserve">22/11/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">P.Poblete/N. Baloian</t>
+    <t xml:space="preserve">Patricio Poblete/Nelson Baloian</t>
   </si>
   <si>
     <t xml:space="preserve">04/102019</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">CC3101: Matem. Discretas para la Comp.</t>
   </si>
   <si>
-    <t xml:space="preserve">G. Navarro</t>
+    <t xml:space="preserve">Gonzalo Navarro</t>
   </si>
   <si>
     <t xml:space="preserve">09/11/2019</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">28/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">F. Olmedo</t>
+    <t xml:space="preserve">Federico Olmedo</t>
   </si>
   <si>
     <t xml:space="preserve">09/12/2019</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">CC3501: Modelación y Computación Gráfica para Ingenieros</t>
   </si>
   <si>
-    <t xml:space="preserve">N.Hitschfeld/D.Calderón</t>
+    <t xml:space="preserve">Nancy Hitschfeld/Daniel Calderón</t>
   </si>
   <si>
     <t xml:space="preserve">30/08/2019</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">CC3002: Metod. De Diseño y Program.</t>
   </si>
   <si>
-    <t xml:space="preserve">A.Bergel</t>
+    <t xml:space="preserve">Alexandre Bergel</t>
   </si>
   <si>
     <t xml:space="preserve">09/02/2019</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">CC3102: Teoría de la Computación</t>
   </si>
   <si>
-    <t xml:space="preserve">A.Hevia</t>
+    <t xml:space="preserve">Alejandro Hevia</t>
   </si>
   <si>
     <t xml:space="preserve">14/11/2019</t>
@@ -276,13 +276,13 @@
     <t xml:space="preserve">CC3301: Program. De Software y Sistem.</t>
   </si>
   <si>
-    <t xml:space="preserve">L.Mateu</t>
+    <t xml:space="preserve">Luis Mateu</t>
   </si>
   <si>
     <t xml:space="preserve">CC3201: Bases de Datos</t>
   </si>
   <si>
-    <t xml:space="preserve">C.Gutiérrez/ S. Ferrada</t>
+    <t xml:space="preserve">Claudio Gutiérrez</t>
   </si>
   <si>
     <t xml:space="preserve">13/09/2019</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">CC4401: Ingeniería de Software</t>
   </si>
   <si>
-    <t xml:space="preserve">J.Simmonds</t>
+    <t xml:space="preserve">Joselyn Simmonds</t>
   </si>
   <si>
     <t xml:space="preserve">18/11/2019</t>
@@ -321,7 +321,7 @@
     <t xml:space="preserve">CC5206: Introducción a la Mineria de Datos</t>
   </si>
   <si>
-    <t xml:space="preserve">B.Poblete/F.Bravo</t>
+    <t xml:space="preserve">Bárbara Poblete/Felipe Bravo</t>
   </si>
   <si>
     <t xml:space="preserve">11/10/2019</t>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">CC4301: Arquitectura de Computadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l.Mateu</t>
   </si>
   <si>
     <t xml:space="preserve">28/08/2019</t>
@@ -349,9 +346,6 @@
   </si>
   <si>
     <t xml:space="preserve">CC4102: Diseño y Análisis de Algoritmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.Navarro</t>
   </si>
   <si>
     <t xml:space="preserve">09/09/2019</t>
@@ -372,7 +366,7 @@
     <t xml:space="preserve">CC4303: Redes</t>
   </si>
   <si>
-    <t xml:space="preserve">J.Piquer/J. Bustos</t>
+    <t xml:space="preserve">José Piquer/Javier Bustos</t>
   </si>
   <si>
     <t xml:space="preserve">9° Sem.</t>
@@ -381,7 +375,7 @@
     <t xml:space="preserve">CC5401: Ingeniería de Software II</t>
   </si>
   <si>
-    <t xml:space="preserve">S.Ochoa</t>
+    <t xml:space="preserve">Sergio Ochoa</t>
   </si>
   <si>
     <t xml:space="preserve">29/08/2019</t>
@@ -396,25 +390,13 @@
     <t xml:space="preserve">24/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">IN3301: Evaluación de Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.Kettlun/O.Saavedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.Vásquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.Concha/L.Tamblay</t>
-  </si>
-  <si>
     <t xml:space="preserve">10° Sem.</t>
   </si>
   <si>
     <t xml:space="preserve">CC5402: Proyecto de Software</t>
   </si>
   <si>
-    <t xml:space="preserve">C.Bastarrica</t>
+    <t xml:space="preserve">Cecilia Bastarrica</t>
   </si>
   <si>
     <t xml:space="preserve">12/09/2019</t>
@@ -990,18 +972,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P964"/>
+  <dimension ref="A1:P961"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="41"/>
   </cols>
@@ -1605,13 +1587,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="39" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>88</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>38</v>
@@ -1627,7 +1609,7 @@
         <v>47</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="34"/>
@@ -1636,22 +1618,22 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>91</v>
       </c>
       <c r="C20" s="44" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>94</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>51</v>
@@ -1661,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>80</v>
@@ -1674,10 +1656,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="44" t="n">
         <v>1</v>
@@ -1686,23 +1668,23 @@
         <v>67</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>87</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>88</v>
       </c>
       <c r="G21" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J21" s="46" t="s">
         <v>47</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -1712,16 +1694,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="44" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>46</v>
@@ -1744,35 +1726,35 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J23" s="50" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="48" t="s">
         <v>104</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="48" t="s">
-        <v>106</v>
       </c>
       <c r="N23" s="48" t="s">
         <v>60</v>
@@ -1783,114 +1765,81 @@
       <c r="P23" s="48"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
+      <c r="F24" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
+      <c r="C25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="C26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="58"/>
@@ -3932,7 +3881,7 @@
       <c r="O163" s="58"/>
       <c r="P163" s="58"/>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="58"/>
       <c r="E164" s="58"/>
       <c r="F164" s="58"/>
@@ -3947,7 +3896,7 @@
       <c r="O164" s="58"/>
       <c r="P164" s="58"/>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="58"/>
       <c r="E165" s="58"/>
       <c r="F165" s="58"/>
@@ -3962,7 +3911,7 @@
       <c r="O165" s="58"/>
       <c r="P165" s="58"/>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="58"/>
       <c r="E166" s="58"/>
       <c r="F166" s="58"/>
@@ -3977,7 +3926,7 @@
       <c r="O166" s="58"/>
       <c r="P166" s="58"/>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="58"/>
       <c r="E167" s="58"/>
       <c r="F167" s="58"/>
@@ -3992,7 +3941,7 @@
       <c r="O167" s="58"/>
       <c r="P167" s="58"/>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="58"/>
       <c r="E168" s="58"/>
       <c r="F168" s="58"/>
@@ -4007,7 +3956,7 @@
       <c r="O168" s="58"/>
       <c r="P168" s="58"/>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="58"/>
       <c r="E169" s="58"/>
       <c r="F169" s="58"/>
@@ -4022,7 +3971,7 @@
       <c r="O169" s="58"/>
       <c r="P169" s="58"/>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C170" s="58"/>
       <c r="E170" s="58"/>
       <c r="F170" s="58"/>
@@ -4037,7 +3986,7 @@
       <c r="O170" s="58"/>
       <c r="P170" s="58"/>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="58"/>
       <c r="E171" s="58"/>
       <c r="F171" s="58"/>
@@ -4052,7 +4001,7 @@
       <c r="O171" s="58"/>
       <c r="P171" s="58"/>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C172" s="58"/>
       <c r="E172" s="58"/>
       <c r="F172" s="58"/>
@@ -4067,7 +4016,7 @@
       <c r="O172" s="58"/>
       <c r="P172" s="58"/>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="58"/>
       <c r="E173" s="58"/>
       <c r="F173" s="58"/>
@@ -4082,7 +4031,7 @@
       <c r="O173" s="58"/>
       <c r="P173" s="58"/>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="58"/>
       <c r="E174" s="58"/>
       <c r="F174" s="58"/>
@@ -4097,7 +4046,7 @@
       <c r="O174" s="58"/>
       <c r="P174" s="58"/>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="58"/>
       <c r="E175" s="58"/>
       <c r="F175" s="58"/>
@@ -4112,7 +4061,7 @@
       <c r="O175" s="58"/>
       <c r="P175" s="58"/>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="58"/>
       <c r="E176" s="58"/>
       <c r="F176" s="58"/>
@@ -4127,7 +4076,7 @@
       <c r="O176" s="58"/>
       <c r="P176" s="58"/>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="58"/>
       <c r="E177" s="58"/>
       <c r="F177" s="58"/>
@@ -4142,7 +4091,7 @@
       <c r="O177" s="58"/>
       <c r="P177" s="58"/>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="58"/>
       <c r="E178" s="58"/>
       <c r="F178" s="58"/>
@@ -4157,7 +4106,7 @@
       <c r="O178" s="58"/>
       <c r="P178" s="58"/>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="58"/>
       <c r="E179" s="58"/>
       <c r="F179" s="58"/>
@@ -4172,7 +4121,7 @@
       <c r="O179" s="58"/>
       <c r="P179" s="58"/>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="58"/>
       <c r="E180" s="58"/>
       <c r="F180" s="58"/>
@@ -4187,7 +4136,7 @@
       <c r="O180" s="58"/>
       <c r="P180" s="58"/>
     </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="58"/>
       <c r="E181" s="58"/>
       <c r="F181" s="58"/>
@@ -4202,7 +4151,7 @@
       <c r="O181" s="58"/>
       <c r="P181" s="58"/>
     </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="58"/>
       <c r="E182" s="58"/>
       <c r="F182" s="58"/>
@@ -4217,7 +4166,7 @@
       <c r="O182" s="58"/>
       <c r="P182" s="58"/>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="58"/>
       <c r="E183" s="58"/>
       <c r="F183" s="58"/>
@@ -4232,7 +4181,7 @@
       <c r="O183" s="58"/>
       <c r="P183" s="58"/>
     </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="58"/>
       <c r="E184" s="58"/>
       <c r="F184" s="58"/>
@@ -4247,7 +4196,7 @@
       <c r="O184" s="58"/>
       <c r="P184" s="58"/>
     </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="58"/>
       <c r="E185" s="58"/>
       <c r="F185" s="58"/>
@@ -4262,7 +4211,7 @@
       <c r="O185" s="58"/>
       <c r="P185" s="58"/>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="58"/>
       <c r="E186" s="58"/>
       <c r="F186" s="58"/>
@@ -4277,7 +4226,7 @@
       <c r="O186" s="58"/>
       <c r="P186" s="58"/>
     </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="58"/>
       <c r="E187" s="58"/>
       <c r="F187" s="58"/>
@@ -4292,7 +4241,7 @@
       <c r="O187" s="58"/>
       <c r="P187" s="58"/>
     </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="58"/>
       <c r="E188" s="58"/>
       <c r="F188" s="58"/>
@@ -4307,7 +4256,7 @@
       <c r="O188" s="58"/>
       <c r="P188" s="58"/>
     </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="58"/>
       <c r="E189" s="58"/>
       <c r="F189" s="58"/>
@@ -4322,7 +4271,7 @@
       <c r="O189" s="58"/>
       <c r="P189" s="58"/>
     </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="58"/>
       <c r="E190" s="58"/>
       <c r="F190" s="58"/>
@@ -4337,7 +4286,7 @@
       <c r="O190" s="58"/>
       <c r="P190" s="58"/>
     </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="58"/>
       <c r="E191" s="58"/>
       <c r="F191" s="58"/>
@@ -4352,7 +4301,7 @@
       <c r="O191" s="58"/>
       <c r="P191" s="58"/>
     </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="58"/>
       <c r="E192" s="58"/>
       <c r="F192" s="58"/>
@@ -4367,7 +4316,7 @@
       <c r="O192" s="58"/>
       <c r="P192" s="58"/>
     </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="58"/>
       <c r="E193" s="58"/>
       <c r="F193" s="58"/>
@@ -4382,7 +4331,7 @@
       <c r="O193" s="58"/>
       <c r="P193" s="58"/>
     </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="58"/>
       <c r="E194" s="58"/>
       <c r="F194" s="58"/>
@@ -4397,7 +4346,7 @@
       <c r="O194" s="58"/>
       <c r="P194" s="58"/>
     </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="58"/>
       <c r="E195" s="58"/>
       <c r="F195" s="58"/>
@@ -4412,7 +4361,7 @@
       <c r="O195" s="58"/>
       <c r="P195" s="58"/>
     </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="58"/>
       <c r="E196" s="58"/>
       <c r="F196" s="58"/>
@@ -4427,7 +4376,7 @@
       <c r="O196" s="58"/>
       <c r="P196" s="58"/>
     </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="58"/>
       <c r="E197" s="58"/>
       <c r="F197" s="58"/>
@@ -4442,7 +4391,7 @@
       <c r="O197" s="58"/>
       <c r="P197" s="58"/>
     </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="58"/>
       <c r="E198" s="58"/>
       <c r="F198" s="58"/>
@@ -4457,7 +4406,7 @@
       <c r="O198" s="58"/>
       <c r="P198" s="58"/>
     </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="58"/>
       <c r="E199" s="58"/>
       <c r="F199" s="58"/>
@@ -4472,7 +4421,7 @@
       <c r="O199" s="58"/>
       <c r="P199" s="58"/>
     </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="58"/>
       <c r="E200" s="58"/>
       <c r="F200" s="58"/>
@@ -4487,7 +4436,7 @@
       <c r="O200" s="58"/>
       <c r="P200" s="58"/>
     </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="58"/>
       <c r="E201" s="58"/>
       <c r="F201" s="58"/>
@@ -4502,7 +4451,7 @@
       <c r="O201" s="58"/>
       <c r="P201" s="58"/>
     </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="58"/>
       <c r="E202" s="58"/>
       <c r="F202" s="58"/>
@@ -4517,7 +4466,7 @@
       <c r="O202" s="58"/>
       <c r="P202" s="58"/>
     </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="58"/>
       <c r="E203" s="58"/>
       <c r="F203" s="58"/>
@@ -4532,7 +4481,7 @@
       <c r="O203" s="58"/>
       <c r="P203" s="58"/>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="58"/>
       <c r="E204" s="58"/>
       <c r="F204" s="58"/>
@@ -4547,7 +4496,7 @@
       <c r="O204" s="58"/>
       <c r="P204" s="58"/>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="58"/>
       <c r="E205" s="58"/>
       <c r="F205" s="58"/>
@@ -4562,7 +4511,7 @@
       <c r="O205" s="58"/>
       <c r="P205" s="58"/>
     </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="58"/>
       <c r="E206" s="58"/>
       <c r="F206" s="58"/>
@@ -4577,7 +4526,7 @@
       <c r="O206" s="58"/>
       <c r="P206" s="58"/>
     </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="58"/>
       <c r="E207" s="58"/>
       <c r="F207" s="58"/>
@@ -4592,7 +4541,7 @@
       <c r="O207" s="58"/>
       <c r="P207" s="58"/>
     </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="58"/>
       <c r="E208" s="58"/>
       <c r="F208" s="58"/>
@@ -4607,7 +4556,7 @@
       <c r="O208" s="58"/>
       <c r="P208" s="58"/>
     </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="58"/>
       <c r="E209" s="58"/>
       <c r="F209" s="58"/>
@@ -4622,7 +4571,7 @@
       <c r="O209" s="58"/>
       <c r="P209" s="58"/>
     </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="58"/>
       <c r="E210" s="58"/>
       <c r="F210" s="58"/>
@@ -4637,7 +4586,7 @@
       <c r="O210" s="58"/>
       <c r="P210" s="58"/>
     </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="58"/>
       <c r="E211" s="58"/>
       <c r="F211" s="58"/>
@@ -4652,7 +4601,7 @@
       <c r="O211" s="58"/>
       <c r="P211" s="58"/>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="58"/>
       <c r="E212" s="58"/>
       <c r="F212" s="58"/>
@@ -4667,7 +4616,7 @@
       <c r="O212" s="58"/>
       <c r="P212" s="58"/>
     </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C213" s="58"/>
       <c r="E213" s="58"/>
       <c r="F213" s="58"/>
@@ -4682,7 +4631,7 @@
       <c r="O213" s="58"/>
       <c r="P213" s="58"/>
     </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C214" s="58"/>
       <c r="E214" s="58"/>
       <c r="F214" s="58"/>
@@ -4697,7 +4646,7 @@
       <c r="O214" s="58"/>
       <c r="P214" s="58"/>
     </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="58"/>
       <c r="E215" s="58"/>
       <c r="F215" s="58"/>
@@ -4712,7 +4661,7 @@
       <c r="O215" s="58"/>
       <c r="P215" s="58"/>
     </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="58"/>
       <c r="E216" s="58"/>
       <c r="F216" s="58"/>
@@ -4727,7 +4676,7 @@
       <c r="O216" s="58"/>
       <c r="P216" s="58"/>
     </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="58"/>
       <c r="E217" s="58"/>
       <c r="F217" s="58"/>
@@ -4742,7 +4691,7 @@
       <c r="O217" s="58"/>
       <c r="P217" s="58"/>
     </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C218" s="58"/>
       <c r="E218" s="58"/>
       <c r="F218" s="58"/>
@@ -4757,7 +4706,7 @@
       <c r="O218" s="58"/>
       <c r="P218" s="58"/>
     </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="58"/>
       <c r="E219" s="58"/>
       <c r="F219" s="58"/>
@@ -4772,7 +4721,7 @@
       <c r="O219" s="58"/>
       <c r="P219" s="58"/>
     </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="58"/>
       <c r="E220" s="58"/>
       <c r="F220" s="58"/>
@@ -4787,7 +4736,7 @@
       <c r="O220" s="58"/>
       <c r="P220" s="58"/>
     </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="58"/>
       <c r="E221" s="58"/>
       <c r="F221" s="58"/>
@@ -4802,7 +4751,7 @@
       <c r="O221" s="58"/>
       <c r="P221" s="58"/>
     </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C222" s="58"/>
       <c r="E222" s="58"/>
       <c r="F222" s="58"/>
@@ -4817,7 +4766,7 @@
       <c r="O222" s="58"/>
       <c r="P222" s="58"/>
     </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="58"/>
       <c r="E223" s="58"/>
       <c r="F223" s="58"/>
@@ -4832,7 +4781,7 @@
       <c r="O223" s="58"/>
       <c r="P223" s="58"/>
     </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="58"/>
       <c r="E224" s="58"/>
       <c r="F224" s="58"/>
@@ -4847,7 +4796,7 @@
       <c r="O224" s="58"/>
       <c r="P224" s="58"/>
     </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="58"/>
       <c r="E225" s="58"/>
       <c r="F225" s="58"/>
@@ -4862,7 +4811,7 @@
       <c r="O225" s="58"/>
       <c r="P225" s="58"/>
     </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="58"/>
       <c r="E226" s="58"/>
       <c r="F226" s="58"/>
@@ -4877,7 +4826,7 @@
       <c r="O226" s="58"/>
       <c r="P226" s="58"/>
     </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="58"/>
       <c r="E227" s="58"/>
       <c r="F227" s="58"/>
@@ -4892,7 +4841,7 @@
       <c r="O227" s="58"/>
       <c r="P227" s="58"/>
     </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="58"/>
       <c r="E228" s="58"/>
       <c r="F228" s="58"/>
@@ -4907,7 +4856,7 @@
       <c r="O228" s="58"/>
       <c r="P228" s="58"/>
     </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="58"/>
       <c r="E229" s="58"/>
       <c r="F229" s="58"/>
@@ -4922,7 +4871,7 @@
       <c r="O229" s="58"/>
       <c r="P229" s="58"/>
     </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="58"/>
       <c r="E230" s="58"/>
       <c r="F230" s="58"/>
@@ -4937,7 +4886,7 @@
       <c r="O230" s="58"/>
       <c r="P230" s="58"/>
     </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="58"/>
       <c r="E231" s="58"/>
       <c r="F231" s="58"/>
@@ -4952,7 +4901,7 @@
       <c r="O231" s="58"/>
       <c r="P231" s="58"/>
     </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C232" s="58"/>
       <c r="E232" s="58"/>
       <c r="F232" s="58"/>
@@ -4967,7 +4916,7 @@
       <c r="O232" s="58"/>
       <c r="P232" s="58"/>
     </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C233" s="58"/>
       <c r="E233" s="58"/>
       <c r="F233" s="58"/>
@@ -4982,7 +4931,7 @@
       <c r="O233" s="58"/>
       <c r="P233" s="58"/>
     </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="58"/>
       <c r="E234" s="58"/>
       <c r="F234" s="58"/>
@@ -4997,7 +4946,7 @@
       <c r="O234" s="58"/>
       <c r="P234" s="58"/>
     </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="58"/>
       <c r="E235" s="58"/>
       <c r="F235" s="58"/>
@@ -5012,7 +4961,7 @@
       <c r="O235" s="58"/>
       <c r="P235" s="58"/>
     </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="58"/>
       <c r="E236" s="58"/>
       <c r="F236" s="58"/>
@@ -5027,7 +4976,7 @@
       <c r="O236" s="58"/>
       <c r="P236" s="58"/>
     </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="58"/>
       <c r="E237" s="58"/>
       <c r="F237" s="58"/>
@@ -5042,7 +4991,7 @@
       <c r="O237" s="58"/>
       <c r="P237" s="58"/>
     </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="58"/>
       <c r="E238" s="58"/>
       <c r="F238" s="58"/>
@@ -5057,7 +5006,7 @@
       <c r="O238" s="58"/>
       <c r="P238" s="58"/>
     </row>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="58"/>
       <c r="E239" s="58"/>
       <c r="F239" s="58"/>
@@ -5072,7 +5021,7 @@
       <c r="O239" s="58"/>
       <c r="P239" s="58"/>
     </row>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C240" s="58"/>
       <c r="E240" s="58"/>
       <c r="F240" s="58"/>
@@ -5087,7 +5036,7 @@
       <c r="O240" s="58"/>
       <c r="P240" s="58"/>
     </row>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="58"/>
       <c r="E241" s="58"/>
       <c r="F241" s="58"/>
@@ -5102,7 +5051,7 @@
       <c r="O241" s="58"/>
       <c r="P241" s="58"/>
     </row>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C242" s="58"/>
       <c r="E242" s="58"/>
       <c r="F242" s="58"/>
@@ -5117,7 +5066,7 @@
       <c r="O242" s="58"/>
       <c r="P242" s="58"/>
     </row>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C243" s="58"/>
       <c r="E243" s="58"/>
       <c r="F243" s="58"/>
@@ -5132,7 +5081,7 @@
       <c r="O243" s="58"/>
       <c r="P243" s="58"/>
     </row>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="58"/>
       <c r="E244" s="58"/>
       <c r="F244" s="58"/>
@@ -5147,7 +5096,7 @@
       <c r="O244" s="58"/>
       <c r="P244" s="58"/>
     </row>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="58"/>
       <c r="E245" s="58"/>
       <c r="F245" s="58"/>
@@ -5162,7 +5111,7 @@
       <c r="O245" s="58"/>
       <c r="P245" s="58"/>
     </row>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="58"/>
       <c r="E246" s="58"/>
       <c r="F246" s="58"/>
@@ -5177,7 +5126,7 @@
       <c r="O246" s="58"/>
       <c r="P246" s="58"/>
     </row>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="58"/>
       <c r="E247" s="58"/>
       <c r="F247" s="58"/>
@@ -5192,7 +5141,7 @@
       <c r="O247" s="58"/>
       <c r="P247" s="58"/>
     </row>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="58"/>
       <c r="E248" s="58"/>
       <c r="F248" s="58"/>
@@ -5207,7 +5156,7 @@
       <c r="O248" s="58"/>
       <c r="P248" s="58"/>
     </row>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="58"/>
       <c r="E249" s="58"/>
       <c r="F249" s="58"/>
@@ -5222,7 +5171,7 @@
       <c r="O249" s="58"/>
       <c r="P249" s="58"/>
     </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C250" s="58"/>
       <c r="E250" s="58"/>
       <c r="F250" s="58"/>
@@ -5237,7 +5186,7 @@
       <c r="O250" s="58"/>
       <c r="P250" s="58"/>
     </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="58"/>
       <c r="E251" s="58"/>
       <c r="F251" s="58"/>
@@ -5252,7 +5201,7 @@
       <c r="O251" s="58"/>
       <c r="P251" s="58"/>
     </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="58"/>
       <c r="E252" s="58"/>
       <c r="F252" s="58"/>
@@ -5267,7 +5216,7 @@
       <c r="O252" s="58"/>
       <c r="P252" s="58"/>
     </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="58"/>
       <c r="E253" s="58"/>
       <c r="F253" s="58"/>
@@ -5282,7 +5231,7 @@
       <c r="O253" s="58"/>
       <c r="P253" s="58"/>
     </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="58"/>
       <c r="E254" s="58"/>
       <c r="F254" s="58"/>
@@ -5297,7 +5246,7 @@
       <c r="O254" s="58"/>
       <c r="P254" s="58"/>
     </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C255" s="58"/>
       <c r="E255" s="58"/>
       <c r="F255" s="58"/>
@@ -5312,7 +5261,7 @@
       <c r="O255" s="58"/>
       <c r="P255" s="58"/>
     </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C256" s="58"/>
       <c r="E256" s="58"/>
       <c r="F256" s="58"/>
@@ -5327,7 +5276,7 @@
       <c r="O256" s="58"/>
       <c r="P256" s="58"/>
     </row>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="58"/>
       <c r="E257" s="58"/>
       <c r="F257" s="58"/>
@@ -5342,7 +5291,7 @@
       <c r="O257" s="58"/>
       <c r="P257" s="58"/>
     </row>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="58"/>
       <c r="E258" s="58"/>
       <c r="F258" s="58"/>
@@ -5357,7 +5306,7 @@
       <c r="O258" s="58"/>
       <c r="P258" s="58"/>
     </row>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="58"/>
       <c r="E259" s="58"/>
       <c r="F259" s="58"/>
@@ -5372,7 +5321,7 @@
       <c r="O259" s="58"/>
       <c r="P259" s="58"/>
     </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C260" s="58"/>
       <c r="E260" s="58"/>
       <c r="F260" s="58"/>
@@ -5387,7 +5336,7 @@
       <c r="O260" s="58"/>
       <c r="P260" s="58"/>
     </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="58"/>
       <c r="E261" s="58"/>
       <c r="F261" s="58"/>
@@ -5402,7 +5351,7 @@
       <c r="O261" s="58"/>
       <c r="P261" s="58"/>
     </row>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="58"/>
       <c r="E262" s="58"/>
       <c r="F262" s="58"/>
@@ -5417,7 +5366,7 @@
       <c r="O262" s="58"/>
       <c r="P262" s="58"/>
     </row>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="58"/>
       <c r="E263" s="58"/>
       <c r="F263" s="58"/>
@@ -5432,7 +5381,7 @@
       <c r="O263" s="58"/>
       <c r="P263" s="58"/>
     </row>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="58"/>
       <c r="E264" s="58"/>
       <c r="F264" s="58"/>
@@ -5447,7 +5396,7 @@
       <c r="O264" s="58"/>
       <c r="P264" s="58"/>
     </row>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="58"/>
       <c r="E265" s="58"/>
       <c r="F265" s="58"/>
@@ -5462,7 +5411,7 @@
       <c r="O265" s="58"/>
       <c r="P265" s="58"/>
     </row>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C266" s="58"/>
       <c r="E266" s="58"/>
       <c r="F266" s="58"/>
@@ -5477,7 +5426,7 @@
       <c r="O266" s="58"/>
       <c r="P266" s="58"/>
     </row>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="58"/>
       <c r="E267" s="58"/>
       <c r="F267" s="58"/>
@@ -5492,7 +5441,7 @@
       <c r="O267" s="58"/>
       <c r="P267" s="58"/>
     </row>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="58"/>
       <c r="E268" s="58"/>
       <c r="F268" s="58"/>
@@ -5507,7 +5456,7 @@
       <c r="O268" s="58"/>
       <c r="P268" s="58"/>
     </row>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="58"/>
       <c r="E269" s="58"/>
       <c r="F269" s="58"/>
@@ -5522,7 +5471,7 @@
       <c r="O269" s="58"/>
       <c r="P269" s="58"/>
     </row>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="58"/>
       <c r="E270" s="58"/>
       <c r="F270" s="58"/>
@@ -5537,7 +5486,7 @@
       <c r="O270" s="58"/>
       <c r="P270" s="58"/>
     </row>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C271" s="58"/>
       <c r="E271" s="58"/>
       <c r="F271" s="58"/>
@@ -5552,7 +5501,7 @@
       <c r="O271" s="58"/>
       <c r="P271" s="58"/>
     </row>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="58"/>
       <c r="E272" s="58"/>
       <c r="F272" s="58"/>
@@ -5567,7 +5516,7 @@
       <c r="O272" s="58"/>
       <c r="P272" s="58"/>
     </row>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="58"/>
       <c r="E273" s="58"/>
       <c r="F273" s="58"/>
@@ -5582,7 +5531,7 @@
       <c r="O273" s="58"/>
       <c r="P273" s="58"/>
     </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="58"/>
       <c r="E274" s="58"/>
       <c r="F274" s="58"/>
@@ -5597,7 +5546,7 @@
       <c r="O274" s="58"/>
       <c r="P274" s="58"/>
     </row>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="58"/>
       <c r="E275" s="58"/>
       <c r="F275" s="58"/>
@@ -5612,7 +5561,7 @@
       <c r="O275" s="58"/>
       <c r="P275" s="58"/>
     </row>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="58"/>
       <c r="E276" s="58"/>
       <c r="F276" s="58"/>
@@ -5627,7 +5576,7 @@
       <c r="O276" s="58"/>
       <c r="P276" s="58"/>
     </row>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="58"/>
       <c r="E277" s="58"/>
       <c r="F277" s="58"/>
@@ -5642,7 +5591,7 @@
       <c r="O277" s="58"/>
       <c r="P277" s="58"/>
     </row>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="58"/>
       <c r="E278" s="58"/>
       <c r="F278" s="58"/>
@@ -5657,7 +5606,7 @@
       <c r="O278" s="58"/>
       <c r="P278" s="58"/>
     </row>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="58"/>
       <c r="E279" s="58"/>
       <c r="F279" s="58"/>
@@ -5672,7 +5621,7 @@
       <c r="O279" s="58"/>
       <c r="P279" s="58"/>
     </row>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="58"/>
       <c r="E280" s="58"/>
       <c r="F280" s="58"/>
@@ -5687,7 +5636,7 @@
       <c r="O280" s="58"/>
       <c r="P280" s="58"/>
     </row>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="58"/>
       <c r="E281" s="58"/>
       <c r="F281" s="58"/>
@@ -5702,7 +5651,7 @@
       <c r="O281" s="58"/>
       <c r="P281" s="58"/>
     </row>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="58"/>
       <c r="E282" s="58"/>
       <c r="F282" s="58"/>
@@ -5717,7 +5666,7 @@
       <c r="O282" s="58"/>
       <c r="P282" s="58"/>
     </row>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="58"/>
       <c r="E283" s="58"/>
       <c r="F283" s="58"/>
@@ -5732,7 +5681,7 @@
       <c r="O283" s="58"/>
       <c r="P283" s="58"/>
     </row>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="58"/>
       <c r="E284" s="58"/>
       <c r="F284" s="58"/>
@@ -5747,7 +5696,7 @@
       <c r="O284" s="58"/>
       <c r="P284" s="58"/>
     </row>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="58"/>
       <c r="E285" s="58"/>
       <c r="F285" s="58"/>
@@ -5762,7 +5711,7 @@
       <c r="O285" s="58"/>
       <c r="P285" s="58"/>
     </row>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="58"/>
       <c r="E286" s="58"/>
       <c r="F286" s="58"/>
@@ -5777,7 +5726,7 @@
       <c r="O286" s="58"/>
       <c r="P286" s="58"/>
     </row>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="58"/>
       <c r="E287" s="58"/>
       <c r="F287" s="58"/>
@@ -5792,7 +5741,7 @@
       <c r="O287" s="58"/>
       <c r="P287" s="58"/>
     </row>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="58"/>
       <c r="E288" s="58"/>
       <c r="F288" s="58"/>
@@ -5807,7 +5756,7 @@
       <c r="O288" s="58"/>
       <c r="P288" s="58"/>
     </row>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="58"/>
       <c r="E289" s="58"/>
       <c r="F289" s="58"/>
@@ -5822,7 +5771,7 @@
       <c r="O289" s="58"/>
       <c r="P289" s="58"/>
     </row>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="58"/>
       <c r="E290" s="58"/>
       <c r="F290" s="58"/>
@@ -5837,7 +5786,7 @@
       <c r="O290" s="58"/>
       <c r="P290" s="58"/>
     </row>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="58"/>
       <c r="E291" s="58"/>
       <c r="F291" s="58"/>
@@ -5852,7 +5801,7 @@
       <c r="O291" s="58"/>
       <c r="P291" s="58"/>
     </row>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="58"/>
       <c r="E292" s="58"/>
       <c r="F292" s="58"/>
@@ -5867,7 +5816,7 @@
       <c r="O292" s="58"/>
       <c r="P292" s="58"/>
     </row>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="58"/>
       <c r="E293" s="58"/>
       <c r="F293" s="58"/>
@@ -5882,7 +5831,7 @@
       <c r="O293" s="58"/>
       <c r="P293" s="58"/>
     </row>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="58"/>
       <c r="E294" s="58"/>
       <c r="F294" s="58"/>
@@ -5897,7 +5846,7 @@
       <c r="O294" s="58"/>
       <c r="P294" s="58"/>
     </row>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="58"/>
       <c r="E295" s="58"/>
       <c r="F295" s="58"/>
@@ -5912,7 +5861,7 @@
       <c r="O295" s="58"/>
       <c r="P295" s="58"/>
     </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="58"/>
       <c r="E296" s="58"/>
       <c r="F296" s="58"/>
@@ -5927,7 +5876,7 @@
       <c r="O296" s="58"/>
       <c r="P296" s="58"/>
     </row>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="58"/>
       <c r="E297" s="58"/>
       <c r="F297" s="58"/>
@@ -5942,7 +5891,7 @@
       <c r="O297" s="58"/>
       <c r="P297" s="58"/>
     </row>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="58"/>
       <c r="E298" s="58"/>
       <c r="F298" s="58"/>
@@ -5957,7 +5906,7 @@
       <c r="O298" s="58"/>
       <c r="P298" s="58"/>
     </row>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="58"/>
       <c r="E299" s="58"/>
       <c r="F299" s="58"/>
@@ -5972,7 +5921,7 @@
       <c r="O299" s="58"/>
       <c r="P299" s="58"/>
     </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="58"/>
       <c r="E300" s="58"/>
       <c r="F300" s="58"/>
@@ -5987,7 +5936,7 @@
       <c r="O300" s="58"/>
       <c r="P300" s="58"/>
     </row>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="58"/>
       <c r="E301" s="58"/>
       <c r="F301" s="58"/>
@@ -6002,7 +5951,7 @@
       <c r="O301" s="58"/>
       <c r="P301" s="58"/>
     </row>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="58"/>
       <c r="E302" s="58"/>
       <c r="F302" s="58"/>
@@ -6017,7 +5966,7 @@
       <c r="O302" s="58"/>
       <c r="P302" s="58"/>
     </row>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="58"/>
       <c r="E303" s="58"/>
       <c r="F303" s="58"/>
@@ -6032,7 +5981,7 @@
       <c r="O303" s="58"/>
       <c r="P303" s="58"/>
     </row>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="58"/>
       <c r="E304" s="58"/>
       <c r="F304" s="58"/>
@@ -6047,7 +5996,7 @@
       <c r="O304" s="58"/>
       <c r="P304" s="58"/>
     </row>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="58"/>
       <c r="E305" s="58"/>
       <c r="F305" s="58"/>
@@ -6062,7 +6011,7 @@
       <c r="O305" s="58"/>
       <c r="P305" s="58"/>
     </row>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="58"/>
       <c r="E306" s="58"/>
       <c r="F306" s="58"/>
@@ -6077,7 +6026,7 @@
       <c r="O306" s="58"/>
       <c r="P306" s="58"/>
     </row>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="58"/>
       <c r="E307" s="58"/>
       <c r="F307" s="58"/>
@@ -6092,7 +6041,7 @@
       <c r="O307" s="58"/>
       <c r="P307" s="58"/>
     </row>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="58"/>
       <c r="E308" s="58"/>
       <c r="F308" s="58"/>
@@ -6107,7 +6056,7 @@
       <c r="O308" s="58"/>
       <c r="P308" s="58"/>
     </row>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="58"/>
       <c r="E309" s="58"/>
       <c r="F309" s="58"/>
@@ -6122,7 +6071,7 @@
       <c r="O309" s="58"/>
       <c r="P309" s="58"/>
     </row>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="58"/>
       <c r="E310" s="58"/>
       <c r="F310" s="58"/>
@@ -6137,7 +6086,7 @@
       <c r="O310" s="58"/>
       <c r="P310" s="58"/>
     </row>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="58"/>
       <c r="E311" s="58"/>
       <c r="F311" s="58"/>
@@ -6152,7 +6101,7 @@
       <c r="O311" s="58"/>
       <c r="P311" s="58"/>
     </row>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="58"/>
       <c r="E312" s="58"/>
       <c r="F312" s="58"/>
@@ -6167,7 +6116,7 @@
       <c r="O312" s="58"/>
       <c r="P312" s="58"/>
     </row>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="58"/>
       <c r="E313" s="58"/>
       <c r="F313" s="58"/>
@@ -6182,7 +6131,7 @@
       <c r="O313" s="58"/>
       <c r="P313" s="58"/>
     </row>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="58"/>
       <c r="E314" s="58"/>
       <c r="F314" s="58"/>
@@ -6197,7 +6146,7 @@
       <c r="O314" s="58"/>
       <c r="P314" s="58"/>
     </row>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="58"/>
       <c r="E315" s="58"/>
       <c r="F315" s="58"/>
@@ -6212,7 +6161,7 @@
       <c r="O315" s="58"/>
       <c r="P315" s="58"/>
     </row>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="58"/>
       <c r="E316" s="58"/>
       <c r="F316" s="58"/>
@@ -6227,7 +6176,7 @@
       <c r="O316" s="58"/>
       <c r="P316" s="58"/>
     </row>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="58"/>
       <c r="E317" s="58"/>
       <c r="F317" s="58"/>
@@ -6242,7 +6191,7 @@
       <c r="O317" s="58"/>
       <c r="P317" s="58"/>
     </row>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="58"/>
       <c r="E318" s="58"/>
       <c r="F318" s="58"/>
@@ -6257,7 +6206,7 @@
       <c r="O318" s="58"/>
       <c r="P318" s="58"/>
     </row>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="58"/>
       <c r="E319" s="58"/>
       <c r="F319" s="58"/>
@@ -6272,7 +6221,7 @@
       <c r="O319" s="58"/>
       <c r="P319" s="58"/>
     </row>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C320" s="58"/>
       <c r="E320" s="58"/>
       <c r="F320" s="58"/>
@@ -6287,7 +6236,7 @@
       <c r="O320" s="58"/>
       <c r="P320" s="58"/>
     </row>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C321" s="58"/>
       <c r="E321" s="58"/>
       <c r="F321" s="58"/>
@@ -6302,7 +6251,7 @@
       <c r="O321" s="58"/>
       <c r="P321" s="58"/>
     </row>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C322" s="58"/>
       <c r="E322" s="58"/>
       <c r="F322" s="58"/>
@@ -6317,7 +6266,7 @@
       <c r="O322" s="58"/>
       <c r="P322" s="58"/>
     </row>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="58"/>
       <c r="E323" s="58"/>
       <c r="F323" s="58"/>
@@ -6332,7 +6281,7 @@
       <c r="O323" s="58"/>
       <c r="P323" s="58"/>
     </row>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C324" s="58"/>
       <c r="E324" s="58"/>
       <c r="F324" s="58"/>
@@ -6347,7 +6296,7 @@
       <c r="O324" s="58"/>
       <c r="P324" s="58"/>
     </row>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="58"/>
       <c r="E325" s="58"/>
       <c r="F325" s="58"/>
@@ -6362,7 +6311,7 @@
       <c r="O325" s="58"/>
       <c r="P325" s="58"/>
     </row>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="58"/>
       <c r="E326" s="58"/>
       <c r="F326" s="58"/>
@@ -6377,7 +6326,7 @@
       <c r="O326" s="58"/>
       <c r="P326" s="58"/>
     </row>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="58"/>
       <c r="E327" s="58"/>
       <c r="F327" s="58"/>
@@ -6392,7 +6341,7 @@
       <c r="O327" s="58"/>
       <c r="P327" s="58"/>
     </row>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="58"/>
       <c r="E328" s="58"/>
       <c r="F328" s="58"/>
@@ -6407,7 +6356,7 @@
       <c r="O328" s="58"/>
       <c r="P328" s="58"/>
     </row>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="58"/>
       <c r="E329" s="58"/>
       <c r="F329" s="58"/>
@@ -6422,7 +6371,7 @@
       <c r="O329" s="58"/>
       <c r="P329" s="58"/>
     </row>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="58"/>
       <c r="E330" s="58"/>
       <c r="F330" s="58"/>
@@ -6437,7 +6386,7 @@
       <c r="O330" s="58"/>
       <c r="P330" s="58"/>
     </row>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="58"/>
       <c r="E331" s="58"/>
       <c r="F331" s="58"/>
@@ -6452,7 +6401,7 @@
       <c r="O331" s="58"/>
       <c r="P331" s="58"/>
     </row>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C332" s="58"/>
       <c r="E332" s="58"/>
       <c r="F332" s="58"/>
@@ -6467,7 +6416,7 @@
       <c r="O332" s="58"/>
       <c r="P332" s="58"/>
     </row>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="58"/>
       <c r="E333" s="58"/>
       <c r="F333" s="58"/>
@@ -6482,7 +6431,7 @@
       <c r="O333" s="58"/>
       <c r="P333" s="58"/>
     </row>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="58"/>
       <c r="E334" s="58"/>
       <c r="F334" s="58"/>
@@ -6497,7 +6446,7 @@
       <c r="O334" s="58"/>
       <c r="P334" s="58"/>
     </row>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="58"/>
       <c r="E335" s="58"/>
       <c r="F335" s="58"/>
@@ -6512,7 +6461,7 @@
       <c r="O335" s="58"/>
       <c r="P335" s="58"/>
     </row>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C336" s="58"/>
       <c r="E336" s="58"/>
       <c r="F336" s="58"/>
@@ -6527,7 +6476,7 @@
       <c r="O336" s="58"/>
       <c r="P336" s="58"/>
     </row>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="58"/>
       <c r="E337" s="58"/>
       <c r="F337" s="58"/>
@@ -6542,7 +6491,7 @@
       <c r="O337" s="58"/>
       <c r="P337" s="58"/>
     </row>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="58"/>
       <c r="E338" s="58"/>
       <c r="F338" s="58"/>
@@ -6557,7 +6506,7 @@
       <c r="O338" s="58"/>
       <c r="P338" s="58"/>
     </row>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="58"/>
       <c r="E339" s="58"/>
       <c r="F339" s="58"/>
@@ -6572,7 +6521,7 @@
       <c r="O339" s="58"/>
       <c r="P339" s="58"/>
     </row>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="58"/>
       <c r="E340" s="58"/>
       <c r="F340" s="58"/>
@@ -6587,7 +6536,7 @@
       <c r="O340" s="58"/>
       <c r="P340" s="58"/>
     </row>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C341" s="58"/>
       <c r="E341" s="58"/>
       <c r="F341" s="58"/>
@@ -6602,7 +6551,7 @@
       <c r="O341" s="58"/>
       <c r="P341" s="58"/>
     </row>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="58"/>
       <c r="E342" s="58"/>
       <c r="F342" s="58"/>
@@ -6617,7 +6566,7 @@
       <c r="O342" s="58"/>
       <c r="P342" s="58"/>
     </row>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="58"/>
       <c r="E343" s="58"/>
       <c r="F343" s="58"/>
@@ -6632,7 +6581,7 @@
       <c r="O343" s="58"/>
       <c r="P343" s="58"/>
     </row>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="58"/>
       <c r="E344" s="58"/>
       <c r="F344" s="58"/>
@@ -6647,7 +6596,7 @@
       <c r="O344" s="58"/>
       <c r="P344" s="58"/>
     </row>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="58"/>
       <c r="E345" s="58"/>
       <c r="F345" s="58"/>
@@ -6662,7 +6611,7 @@
       <c r="O345" s="58"/>
       <c r="P345" s="58"/>
     </row>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="58"/>
       <c r="E346" s="58"/>
       <c r="F346" s="58"/>
@@ -6677,7 +6626,7 @@
       <c r="O346" s="58"/>
       <c r="P346" s="58"/>
     </row>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="58"/>
       <c r="E347" s="58"/>
       <c r="F347" s="58"/>
@@ -6692,7 +6641,7 @@
       <c r="O347" s="58"/>
       <c r="P347" s="58"/>
     </row>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="58"/>
       <c r="E348" s="58"/>
       <c r="F348" s="58"/>
@@ -6707,7 +6656,7 @@
       <c r="O348" s="58"/>
       <c r="P348" s="58"/>
     </row>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C349" s="58"/>
       <c r="E349" s="58"/>
       <c r="F349" s="58"/>
@@ -6722,7 +6671,7 @@
       <c r="O349" s="58"/>
       <c r="P349" s="58"/>
     </row>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="58"/>
       <c r="E350" s="58"/>
       <c r="F350" s="58"/>
@@ -6737,7 +6686,7 @@
       <c r="O350" s="58"/>
       <c r="P350" s="58"/>
     </row>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="58"/>
       <c r="E351" s="58"/>
       <c r="F351" s="58"/>
@@ -6752,7 +6701,7 @@
       <c r="O351" s="58"/>
       <c r="P351" s="58"/>
     </row>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="58"/>
       <c r="E352" s="58"/>
       <c r="F352" s="58"/>
@@ -6767,7 +6716,7 @@
       <c r="O352" s="58"/>
       <c r="P352" s="58"/>
     </row>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="58"/>
       <c r="E353" s="58"/>
       <c r="F353" s="58"/>
@@ -6782,7 +6731,7 @@
       <c r="O353" s="58"/>
       <c r="P353" s="58"/>
     </row>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C354" s="58"/>
       <c r="E354" s="58"/>
       <c r="F354" s="58"/>
@@ -6797,7 +6746,7 @@
       <c r="O354" s="58"/>
       <c r="P354" s="58"/>
     </row>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="58"/>
       <c r="E355" s="58"/>
       <c r="F355" s="58"/>
@@ -6812,7 +6761,7 @@
       <c r="O355" s="58"/>
       <c r="P355" s="58"/>
     </row>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="58"/>
       <c r="E356" s="58"/>
       <c r="F356" s="58"/>
@@ -6827,7 +6776,7 @@
       <c r="O356" s="58"/>
       <c r="P356" s="58"/>
     </row>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="58"/>
       <c r="E357" s="58"/>
       <c r="F357" s="58"/>
@@ -6842,7 +6791,7 @@
       <c r="O357" s="58"/>
       <c r="P357" s="58"/>
     </row>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="58"/>
       <c r="E358" s="58"/>
       <c r="F358" s="58"/>
@@ -6857,7 +6806,7 @@
       <c r="O358" s="58"/>
       <c r="P358" s="58"/>
     </row>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C359" s="58"/>
       <c r="E359" s="58"/>
       <c r="F359" s="58"/>
@@ -6872,7 +6821,7 @@
       <c r="O359" s="58"/>
       <c r="P359" s="58"/>
     </row>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C360" s="58"/>
       <c r="E360" s="58"/>
       <c r="F360" s="58"/>
@@ -6887,7 +6836,7 @@
       <c r="O360" s="58"/>
       <c r="P360" s="58"/>
     </row>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C361" s="58"/>
       <c r="E361" s="58"/>
       <c r="F361" s="58"/>
@@ -6902,7 +6851,7 @@
       <c r="O361" s="58"/>
       <c r="P361" s="58"/>
     </row>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="58"/>
       <c r="E362" s="58"/>
       <c r="F362" s="58"/>
@@ -6917,7 +6866,7 @@
       <c r="O362" s="58"/>
       <c r="P362" s="58"/>
     </row>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="58"/>
       <c r="E363" s="58"/>
       <c r="F363" s="58"/>
@@ -6932,7 +6881,7 @@
       <c r="O363" s="58"/>
       <c r="P363" s="58"/>
     </row>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="58"/>
       <c r="E364" s="58"/>
       <c r="F364" s="58"/>
@@ -6947,7 +6896,7 @@
       <c r="O364" s="58"/>
       <c r="P364" s="58"/>
     </row>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="58"/>
       <c r="E365" s="58"/>
       <c r="F365" s="58"/>
@@ -6962,7 +6911,7 @@
       <c r="O365" s="58"/>
       <c r="P365" s="58"/>
     </row>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="58"/>
       <c r="E366" s="58"/>
       <c r="F366" s="58"/>
@@ -6977,7 +6926,7 @@
       <c r="O366" s="58"/>
       <c r="P366" s="58"/>
     </row>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="58"/>
       <c r="E367" s="58"/>
       <c r="F367" s="58"/>
@@ -6992,7 +6941,7 @@
       <c r="O367" s="58"/>
       <c r="P367" s="58"/>
     </row>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C368" s="58"/>
       <c r="E368" s="58"/>
       <c r="F368" s="58"/>
@@ -7007,7 +6956,7 @@
       <c r="O368" s="58"/>
       <c r="P368" s="58"/>
     </row>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="58"/>
       <c r="E369" s="58"/>
       <c r="F369" s="58"/>
@@ -7022,7 +6971,7 @@
       <c r="O369" s="58"/>
       <c r="P369" s="58"/>
     </row>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="58"/>
       <c r="E370" s="58"/>
       <c r="F370" s="58"/>
@@ -7037,7 +6986,7 @@
       <c r="O370" s="58"/>
       <c r="P370" s="58"/>
     </row>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="58"/>
       <c r="E371" s="58"/>
       <c r="F371" s="58"/>
@@ -7052,7 +7001,7 @@
       <c r="O371" s="58"/>
       <c r="P371" s="58"/>
     </row>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C372" s="58"/>
       <c r="E372" s="58"/>
       <c r="F372" s="58"/>
@@ -7067,7 +7016,7 @@
       <c r="O372" s="58"/>
       <c r="P372" s="58"/>
     </row>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C373" s="58"/>
       <c r="E373" s="58"/>
       <c r="F373" s="58"/>
@@ -7082,7 +7031,7 @@
       <c r="O373" s="58"/>
       <c r="P373" s="58"/>
     </row>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="58"/>
       <c r="E374" s="58"/>
       <c r="F374" s="58"/>
@@ -7097,7 +7046,7 @@
       <c r="O374" s="58"/>
       <c r="P374" s="58"/>
     </row>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C375" s="58"/>
       <c r="E375" s="58"/>
       <c r="F375" s="58"/>
@@ -7112,7 +7061,7 @@
       <c r="O375" s="58"/>
       <c r="P375" s="58"/>
     </row>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C376" s="58"/>
       <c r="E376" s="58"/>
       <c r="F376" s="58"/>
@@ -7127,7 +7076,7 @@
       <c r="O376" s="58"/>
       <c r="P376" s="58"/>
     </row>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C377" s="58"/>
       <c r="E377" s="58"/>
       <c r="F377" s="58"/>
@@ -7142,7 +7091,7 @@
       <c r="O377" s="58"/>
       <c r="P377" s="58"/>
     </row>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C378" s="58"/>
       <c r="E378" s="58"/>
       <c r="F378" s="58"/>
@@ -7157,7 +7106,7 @@
       <c r="O378" s="58"/>
       <c r="P378" s="58"/>
     </row>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="58"/>
       <c r="E379" s="58"/>
       <c r="F379" s="58"/>
@@ -7172,7 +7121,7 @@
       <c r="O379" s="58"/>
       <c r="P379" s="58"/>
     </row>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C380" s="58"/>
       <c r="E380" s="58"/>
       <c r="F380" s="58"/>
@@ -7187,7 +7136,7 @@
       <c r="O380" s="58"/>
       <c r="P380" s="58"/>
     </row>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="58"/>
       <c r="E381" s="58"/>
       <c r="F381" s="58"/>
@@ -7202,7 +7151,7 @@
       <c r="O381" s="58"/>
       <c r="P381" s="58"/>
     </row>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="58"/>
       <c r="E382" s="58"/>
       <c r="F382" s="58"/>
@@ -7217,7 +7166,7 @@
       <c r="O382" s="58"/>
       <c r="P382" s="58"/>
     </row>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="58"/>
       <c r="E383" s="58"/>
       <c r="F383" s="58"/>
@@ -7232,7 +7181,7 @@
       <c r="O383" s="58"/>
       <c r="P383" s="58"/>
     </row>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="58"/>
       <c r="E384" s="58"/>
       <c r="F384" s="58"/>
@@ -7247,7 +7196,7 @@
       <c r="O384" s="58"/>
       <c r="P384" s="58"/>
     </row>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="58"/>
       <c r="E385" s="58"/>
       <c r="F385" s="58"/>
@@ -7262,7 +7211,7 @@
       <c r="O385" s="58"/>
       <c r="P385" s="58"/>
     </row>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="58"/>
       <c r="E386" s="58"/>
       <c r="F386" s="58"/>
@@ -7277,7 +7226,7 @@
       <c r="O386" s="58"/>
       <c r="P386" s="58"/>
     </row>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C387" s="58"/>
       <c r="E387" s="58"/>
       <c r="F387" s="58"/>
@@ -7292,7 +7241,7 @@
       <c r="O387" s="58"/>
       <c r="P387" s="58"/>
     </row>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C388" s="58"/>
       <c r="E388" s="58"/>
       <c r="F388" s="58"/>
@@ -7307,7 +7256,7 @@
       <c r="O388" s="58"/>
       <c r="P388" s="58"/>
     </row>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C389" s="58"/>
       <c r="E389" s="58"/>
       <c r="F389" s="58"/>
@@ -7322,7 +7271,7 @@
       <c r="O389" s="58"/>
       <c r="P389" s="58"/>
     </row>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C390" s="58"/>
       <c r="E390" s="58"/>
       <c r="F390" s="58"/>
@@ -7337,7 +7286,7 @@
       <c r="O390" s="58"/>
       <c r="P390" s="58"/>
     </row>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C391" s="58"/>
       <c r="E391" s="58"/>
       <c r="F391" s="58"/>
@@ -7352,7 +7301,7 @@
       <c r="O391" s="58"/>
       <c r="P391" s="58"/>
     </row>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C392" s="58"/>
       <c r="E392" s="58"/>
       <c r="F392" s="58"/>
@@ -7367,7 +7316,7 @@
       <c r="O392" s="58"/>
       <c r="P392" s="58"/>
     </row>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="58"/>
       <c r="E393" s="58"/>
       <c r="F393" s="58"/>
@@ -7382,7 +7331,7 @@
       <c r="O393" s="58"/>
       <c r="P393" s="58"/>
     </row>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="58"/>
       <c r="E394" s="58"/>
       <c r="F394" s="58"/>
@@ -7397,7 +7346,7 @@
       <c r="O394" s="58"/>
       <c r="P394" s="58"/>
     </row>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="58"/>
       <c r="E395" s="58"/>
       <c r="F395" s="58"/>
@@ -7412,7 +7361,7 @@
       <c r="O395" s="58"/>
       <c r="P395" s="58"/>
     </row>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C396" s="58"/>
       <c r="E396" s="58"/>
       <c r="F396" s="58"/>
@@ -7427,7 +7376,7 @@
       <c r="O396" s="58"/>
       <c r="P396" s="58"/>
     </row>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C397" s="58"/>
       <c r="E397" s="58"/>
       <c r="F397" s="58"/>
@@ -7442,7 +7391,7 @@
       <c r="O397" s="58"/>
       <c r="P397" s="58"/>
     </row>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C398" s="58"/>
       <c r="E398" s="58"/>
       <c r="F398" s="58"/>
@@ -7457,7 +7406,7 @@
       <c r="O398" s="58"/>
       <c r="P398" s="58"/>
     </row>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="58"/>
       <c r="E399" s="58"/>
       <c r="F399" s="58"/>
@@ -7472,7 +7421,7 @@
       <c r="O399" s="58"/>
       <c r="P399" s="58"/>
     </row>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="58"/>
       <c r="E400" s="58"/>
       <c r="F400" s="58"/>
@@ -7487,7 +7436,7 @@
       <c r="O400" s="58"/>
       <c r="P400" s="58"/>
     </row>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C401" s="58"/>
       <c r="E401" s="58"/>
       <c r="F401" s="58"/>
@@ -7502,7 +7451,7 @@
       <c r="O401" s="58"/>
       <c r="P401" s="58"/>
     </row>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C402" s="58"/>
       <c r="E402" s="58"/>
       <c r="F402" s="58"/>
@@ -7517,7 +7466,7 @@
       <c r="O402" s="58"/>
       <c r="P402" s="58"/>
     </row>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C403" s="58"/>
       <c r="E403" s="58"/>
       <c r="F403" s="58"/>
@@ -7532,7 +7481,7 @@
       <c r="O403" s="58"/>
       <c r="P403" s="58"/>
     </row>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C404" s="58"/>
       <c r="E404" s="58"/>
       <c r="F404" s="58"/>
@@ -7547,7 +7496,7 @@
       <c r="O404" s="58"/>
       <c r="P404" s="58"/>
     </row>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C405" s="58"/>
       <c r="E405" s="58"/>
       <c r="F405" s="58"/>
@@ -7562,7 +7511,7 @@
       <c r="O405" s="58"/>
       <c r="P405" s="58"/>
     </row>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="58"/>
       <c r="E406" s="58"/>
       <c r="F406" s="58"/>
@@ -7577,7 +7526,7 @@
       <c r="O406" s="58"/>
       <c r="P406" s="58"/>
     </row>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C407" s="58"/>
       <c r="E407" s="58"/>
       <c r="F407" s="58"/>
@@ -7592,7 +7541,7 @@
       <c r="O407" s="58"/>
       <c r="P407" s="58"/>
     </row>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="58"/>
       <c r="E408" s="58"/>
       <c r="F408" s="58"/>
@@ -7607,7 +7556,7 @@
       <c r="O408" s="58"/>
       <c r="P408" s="58"/>
     </row>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="58"/>
       <c r="E409" s="58"/>
       <c r="F409" s="58"/>
@@ -7622,7 +7571,7 @@
       <c r="O409" s="58"/>
       <c r="P409" s="58"/>
     </row>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="58"/>
       <c r="E410" s="58"/>
       <c r="F410" s="58"/>
@@ -7637,7 +7586,7 @@
       <c r="O410" s="58"/>
       <c r="P410" s="58"/>
     </row>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="58"/>
       <c r="E411" s="58"/>
       <c r="F411" s="58"/>
@@ -7652,7 +7601,7 @@
       <c r="O411" s="58"/>
       <c r="P411" s="58"/>
     </row>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="58"/>
       <c r="E412" s="58"/>
       <c r="F412" s="58"/>
@@ -7667,7 +7616,7 @@
       <c r="O412" s="58"/>
       <c r="P412" s="58"/>
     </row>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C413" s="58"/>
       <c r="E413" s="58"/>
       <c r="F413" s="58"/>
@@ -7682,7 +7631,7 @@
       <c r="O413" s="58"/>
       <c r="P413" s="58"/>
     </row>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="58"/>
       <c r="E414" s="58"/>
       <c r="F414" s="58"/>
@@ -7697,7 +7646,7 @@
       <c r="O414" s="58"/>
       <c r="P414" s="58"/>
     </row>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="58"/>
       <c r="E415" s="58"/>
       <c r="F415" s="58"/>
@@ -7712,7 +7661,7 @@
       <c r="O415" s="58"/>
       <c r="P415" s="58"/>
     </row>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="58"/>
       <c r="E416" s="58"/>
       <c r="F416" s="58"/>
@@ -7727,7 +7676,7 @@
       <c r="O416" s="58"/>
       <c r="P416" s="58"/>
     </row>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="58"/>
       <c r="E417" s="58"/>
       <c r="F417" s="58"/>
@@ -7742,7 +7691,7 @@
       <c r="O417" s="58"/>
       <c r="P417" s="58"/>
     </row>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="58"/>
       <c r="E418" s="58"/>
       <c r="F418" s="58"/>
@@ -7757,7 +7706,7 @@
       <c r="O418" s="58"/>
       <c r="P418" s="58"/>
     </row>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="58"/>
       <c r="E419" s="58"/>
       <c r="F419" s="58"/>
@@ -7772,7 +7721,7 @@
       <c r="O419" s="58"/>
       <c r="P419" s="58"/>
     </row>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="58"/>
       <c r="E420" s="58"/>
       <c r="F420" s="58"/>
@@ -7787,7 +7736,7 @@
       <c r="O420" s="58"/>
       <c r="P420" s="58"/>
     </row>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="58"/>
       <c r="E421" s="58"/>
       <c r="F421" s="58"/>
@@ -7802,7 +7751,7 @@
       <c r="O421" s="58"/>
       <c r="P421" s="58"/>
     </row>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="58"/>
       <c r="E422" s="58"/>
       <c r="F422" s="58"/>
@@ -7817,7 +7766,7 @@
       <c r="O422" s="58"/>
       <c r="P422" s="58"/>
     </row>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="58"/>
       <c r="E423" s="58"/>
       <c r="F423" s="58"/>
@@ -7832,7 +7781,7 @@
       <c r="O423" s="58"/>
       <c r="P423" s="58"/>
     </row>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="58"/>
       <c r="E424" s="58"/>
       <c r="F424" s="58"/>
@@ -7847,7 +7796,7 @@
       <c r="O424" s="58"/>
       <c r="P424" s="58"/>
     </row>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="58"/>
       <c r="E425" s="58"/>
       <c r="F425" s="58"/>
@@ -7862,7 +7811,7 @@
       <c r="O425" s="58"/>
       <c r="P425" s="58"/>
     </row>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="58"/>
       <c r="E426" s="58"/>
       <c r="F426" s="58"/>
@@ -7877,7 +7826,7 @@
       <c r="O426" s="58"/>
       <c r="P426" s="58"/>
     </row>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="58"/>
       <c r="E427" s="58"/>
       <c r="F427" s="58"/>
@@ -7892,7 +7841,7 @@
       <c r="O427" s="58"/>
       <c r="P427" s="58"/>
     </row>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="58"/>
       <c r="E428" s="58"/>
       <c r="F428" s="58"/>
@@ -7907,7 +7856,7 @@
       <c r="O428" s="58"/>
       <c r="P428" s="58"/>
     </row>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="58"/>
       <c r="E429" s="58"/>
       <c r="F429" s="58"/>
@@ -7922,7 +7871,7 @@
       <c r="O429" s="58"/>
       <c r="P429" s="58"/>
     </row>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="58"/>
       <c r="E430" s="58"/>
       <c r="F430" s="58"/>
@@ -7937,7 +7886,7 @@
       <c r="O430" s="58"/>
       <c r="P430" s="58"/>
     </row>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="58"/>
       <c r="E431" s="58"/>
       <c r="F431" s="58"/>
@@ -7952,7 +7901,7 @@
       <c r="O431" s="58"/>
       <c r="P431" s="58"/>
     </row>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="58"/>
       <c r="E432" s="58"/>
       <c r="F432" s="58"/>
@@ -7967,7 +7916,7 @@
       <c r="O432" s="58"/>
       <c r="P432" s="58"/>
     </row>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="58"/>
       <c r="E433" s="58"/>
       <c r="F433" s="58"/>
@@ -7982,7 +7931,7 @@
       <c r="O433" s="58"/>
       <c r="P433" s="58"/>
     </row>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="58"/>
       <c r="E434" s="58"/>
       <c r="F434" s="58"/>
@@ -7997,7 +7946,7 @@
       <c r="O434" s="58"/>
       <c r="P434" s="58"/>
     </row>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="58"/>
       <c r="E435" s="58"/>
       <c r="F435" s="58"/>
@@ -8012,7 +7961,7 @@
       <c r="O435" s="58"/>
       <c r="P435" s="58"/>
     </row>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="58"/>
       <c r="E436" s="58"/>
       <c r="F436" s="58"/>
@@ -8027,7 +7976,7 @@
       <c r="O436" s="58"/>
       <c r="P436" s="58"/>
     </row>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="58"/>
       <c r="E437" s="58"/>
       <c r="F437" s="58"/>
@@ -8042,7 +7991,7 @@
       <c r="O437" s="58"/>
       <c r="P437" s="58"/>
     </row>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="58"/>
       <c r="E438" s="58"/>
       <c r="F438" s="58"/>
@@ -8057,7 +8006,7 @@
       <c r="O438" s="58"/>
       <c r="P438" s="58"/>
     </row>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="58"/>
       <c r="E439" s="58"/>
       <c r="F439" s="58"/>
@@ -8072,7 +8021,7 @@
       <c r="O439" s="58"/>
       <c r="P439" s="58"/>
     </row>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="58"/>
       <c r="E440" s="58"/>
       <c r="F440" s="58"/>
@@ -8087,7 +8036,7 @@
       <c r="O440" s="58"/>
       <c r="P440" s="58"/>
     </row>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="58"/>
       <c r="E441" s="58"/>
       <c r="F441" s="58"/>
@@ -8102,7 +8051,7 @@
       <c r="O441" s="58"/>
       <c r="P441" s="58"/>
     </row>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="58"/>
       <c r="E442" s="58"/>
       <c r="F442" s="58"/>
@@ -8117,7 +8066,7 @@
       <c r="O442" s="58"/>
       <c r="P442" s="58"/>
     </row>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="58"/>
       <c r="E443" s="58"/>
       <c r="F443" s="58"/>
@@ -8132,7 +8081,7 @@
       <c r="O443" s="58"/>
       <c r="P443" s="58"/>
     </row>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="58"/>
       <c r="E444" s="58"/>
       <c r="F444" s="58"/>
@@ -8147,7 +8096,7 @@
       <c r="O444" s="58"/>
       <c r="P444" s="58"/>
     </row>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="58"/>
       <c r="E445" s="58"/>
       <c r="F445" s="58"/>
@@ -8162,7 +8111,7 @@
       <c r="O445" s="58"/>
       <c r="P445" s="58"/>
     </row>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="58"/>
       <c r="E446" s="58"/>
       <c r="F446" s="58"/>
@@ -8177,7 +8126,7 @@
       <c r="O446" s="58"/>
       <c r="P446" s="58"/>
     </row>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="58"/>
       <c r="E447" s="58"/>
       <c r="F447" s="58"/>
@@ -8192,7 +8141,7 @@
       <c r="O447" s="58"/>
       <c r="P447" s="58"/>
     </row>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="58"/>
       <c r="E448" s="58"/>
       <c r="F448" s="58"/>
@@ -8207,7 +8156,7 @@
       <c r="O448" s="58"/>
       <c r="P448" s="58"/>
     </row>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="58"/>
       <c r="E449" s="58"/>
       <c r="F449" s="58"/>
@@ -8222,7 +8171,7 @@
       <c r="O449" s="58"/>
       <c r="P449" s="58"/>
     </row>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="58"/>
       <c r="E450" s="58"/>
       <c r="F450" s="58"/>
@@ -8237,7 +8186,7 @@
       <c r="O450" s="58"/>
       <c r="P450" s="58"/>
     </row>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="58"/>
       <c r="E451" s="58"/>
       <c r="F451" s="58"/>
@@ -8252,7 +8201,7 @@
       <c r="O451" s="58"/>
       <c r="P451" s="58"/>
     </row>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="58"/>
       <c r="E452" s="58"/>
       <c r="F452" s="58"/>
@@ -8267,7 +8216,7 @@
       <c r="O452" s="58"/>
       <c r="P452" s="58"/>
     </row>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="58"/>
       <c r="E453" s="58"/>
       <c r="F453" s="58"/>
@@ -8282,7 +8231,7 @@
       <c r="O453" s="58"/>
       <c r="P453" s="58"/>
     </row>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="58"/>
       <c r="E454" s="58"/>
       <c r="F454" s="58"/>
@@ -8297,7 +8246,7 @@
       <c r="O454" s="58"/>
       <c r="P454" s="58"/>
     </row>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="58"/>
       <c r="E455" s="58"/>
       <c r="F455" s="58"/>
@@ -8312,7 +8261,7 @@
       <c r="O455" s="58"/>
       <c r="P455" s="58"/>
     </row>
-    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="58"/>
       <c r="E456" s="58"/>
       <c r="F456" s="58"/>
@@ -8327,7 +8276,7 @@
       <c r="O456" s="58"/>
       <c r="P456" s="58"/>
     </row>
-    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="58"/>
       <c r="E457" s="58"/>
       <c r="F457" s="58"/>
@@ -8342,7 +8291,7 @@
       <c r="O457" s="58"/>
       <c r="P457" s="58"/>
     </row>
-    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="58"/>
       <c r="E458" s="58"/>
       <c r="F458" s="58"/>
@@ -8357,7 +8306,7 @@
       <c r="O458" s="58"/>
       <c r="P458" s="58"/>
     </row>
-    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="58"/>
       <c r="E459" s="58"/>
       <c r="F459" s="58"/>
@@ -8372,7 +8321,7 @@
       <c r="O459" s="58"/>
       <c r="P459" s="58"/>
     </row>
-    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="58"/>
       <c r="E460" s="58"/>
       <c r="F460" s="58"/>
@@ -8387,7 +8336,7 @@
       <c r="O460" s="58"/>
       <c r="P460" s="58"/>
     </row>
-    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="58"/>
       <c r="E461" s="58"/>
       <c r="F461" s="58"/>
@@ -8402,7 +8351,7 @@
       <c r="O461" s="58"/>
       <c r="P461" s="58"/>
     </row>
-    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="58"/>
       <c r="E462" s="58"/>
       <c r="F462" s="58"/>
@@ -8417,7 +8366,7 @@
       <c r="O462" s="58"/>
       <c r="P462" s="58"/>
     </row>
-    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="58"/>
       <c r="E463" s="58"/>
       <c r="F463" s="58"/>
@@ -8432,7 +8381,7 @@
       <c r="O463" s="58"/>
       <c r="P463" s="58"/>
     </row>
-    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="58"/>
       <c r="E464" s="58"/>
       <c r="F464" s="58"/>
@@ -8447,7 +8396,7 @@
       <c r="O464" s="58"/>
       <c r="P464" s="58"/>
     </row>
-    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="58"/>
       <c r="E465" s="58"/>
       <c r="F465" s="58"/>
@@ -8462,7 +8411,7 @@
       <c r="O465" s="58"/>
       <c r="P465" s="58"/>
     </row>
-    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="58"/>
       <c r="E466" s="58"/>
       <c r="F466" s="58"/>
@@ -8477,7 +8426,7 @@
       <c r="O466" s="58"/>
       <c r="P466" s="58"/>
     </row>
-    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="58"/>
       <c r="E467" s="58"/>
       <c r="F467" s="58"/>
@@ -8492,7 +8441,7 @@
       <c r="O467" s="58"/>
       <c r="P467" s="58"/>
     </row>
-    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="58"/>
       <c r="E468" s="58"/>
       <c r="F468" s="58"/>
@@ -8507,7 +8456,7 @@
       <c r="O468" s="58"/>
       <c r="P468" s="58"/>
     </row>
-    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="58"/>
       <c r="E469" s="58"/>
       <c r="F469" s="58"/>
@@ -8522,7 +8471,7 @@
       <c r="O469" s="58"/>
       <c r="P469" s="58"/>
     </row>
-    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="58"/>
       <c r="E470" s="58"/>
       <c r="F470" s="58"/>
@@ -8537,7 +8486,7 @@
       <c r="O470" s="58"/>
       <c r="P470" s="58"/>
     </row>
-    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="58"/>
       <c r="E471" s="58"/>
       <c r="F471" s="58"/>
@@ -8552,7 +8501,7 @@
       <c r="O471" s="58"/>
       <c r="P471" s="58"/>
     </row>
-    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="58"/>
       <c r="E472" s="58"/>
       <c r="F472" s="58"/>
@@ -8567,7 +8516,7 @@
       <c r="O472" s="58"/>
       <c r="P472" s="58"/>
     </row>
-    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="58"/>
       <c r="E473" s="58"/>
       <c r="F473" s="58"/>
@@ -8582,7 +8531,7 @@
       <c r="O473" s="58"/>
       <c r="P473" s="58"/>
     </row>
-    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="58"/>
       <c r="E474" s="58"/>
       <c r="F474" s="58"/>
@@ -8597,7 +8546,7 @@
       <c r="O474" s="58"/>
       <c r="P474" s="58"/>
     </row>
-    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="58"/>
       <c r="E475" s="58"/>
       <c r="F475" s="58"/>
@@ -8612,7 +8561,7 @@
       <c r="O475" s="58"/>
       <c r="P475" s="58"/>
     </row>
-    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="58"/>
       <c r="E476" s="58"/>
       <c r="F476" s="58"/>
@@ -8627,7 +8576,7 @@
       <c r="O476" s="58"/>
       <c r="P476" s="58"/>
     </row>
-    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="58"/>
       <c r="E477" s="58"/>
       <c r="F477" s="58"/>
@@ -8642,7 +8591,7 @@
       <c r="O477" s="58"/>
       <c r="P477" s="58"/>
     </row>
-    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="58"/>
       <c r="E478" s="58"/>
       <c r="F478" s="58"/>
@@ -8657,7 +8606,7 @@
       <c r="O478" s="58"/>
       <c r="P478" s="58"/>
     </row>
-    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="58"/>
       <c r="E479" s="58"/>
       <c r="F479" s="58"/>
@@ -8672,7 +8621,7 @@
       <c r="O479" s="58"/>
       <c r="P479" s="58"/>
     </row>
-    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="58"/>
       <c r="E480" s="58"/>
       <c r="F480" s="58"/>
@@ -8687,7 +8636,7 @@
       <c r="O480" s="58"/>
       <c r="P480" s="58"/>
     </row>
-    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="58"/>
       <c r="E481" s="58"/>
       <c r="F481" s="58"/>
@@ -8702,7 +8651,7 @@
       <c r="O481" s="58"/>
       <c r="P481" s="58"/>
     </row>
-    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="58"/>
       <c r="E482" s="58"/>
       <c r="F482" s="58"/>
@@ -8717,7 +8666,7 @@
       <c r="O482" s="58"/>
       <c r="P482" s="58"/>
     </row>
-    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="58"/>
       <c r="E483" s="58"/>
       <c r="F483" s="58"/>
@@ -8732,7 +8681,7 @@
       <c r="O483" s="58"/>
       <c r="P483" s="58"/>
     </row>
-    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="58"/>
       <c r="E484" s="58"/>
       <c r="F484" s="58"/>
@@ -8747,7 +8696,7 @@
       <c r="O484" s="58"/>
       <c r="P484" s="58"/>
     </row>
-    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="58"/>
       <c r="E485" s="58"/>
       <c r="F485" s="58"/>
@@ -8762,7 +8711,7 @@
       <c r="O485" s="58"/>
       <c r="P485" s="58"/>
     </row>
-    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="58"/>
       <c r="E486" s="58"/>
       <c r="F486" s="58"/>
@@ -8777,7 +8726,7 @@
       <c r="O486" s="58"/>
       <c r="P486" s="58"/>
     </row>
-    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="58"/>
       <c r="E487" s="58"/>
       <c r="F487" s="58"/>
@@ -8792,7 +8741,7 @@
       <c r="O487" s="58"/>
       <c r="P487" s="58"/>
     </row>
-    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="58"/>
       <c r="E488" s="58"/>
       <c r="F488" s="58"/>
@@ -8807,7 +8756,7 @@
       <c r="O488" s="58"/>
       <c r="P488" s="58"/>
     </row>
-    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="58"/>
       <c r="E489" s="58"/>
       <c r="F489" s="58"/>
@@ -8822,7 +8771,7 @@
       <c r="O489" s="58"/>
       <c r="P489" s="58"/>
     </row>
-    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="58"/>
       <c r="E490" s="58"/>
       <c r="F490" s="58"/>
@@ -8837,7 +8786,7 @@
       <c r="O490" s="58"/>
       <c r="P490" s="58"/>
     </row>
-    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="58"/>
       <c r="E491" s="58"/>
       <c r="F491" s="58"/>
@@ -8852,7 +8801,7 @@
       <c r="O491" s="58"/>
       <c r="P491" s="58"/>
     </row>
-    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="58"/>
       <c r="E492" s="58"/>
       <c r="F492" s="58"/>
@@ -8867,7 +8816,7 @@
       <c r="O492" s="58"/>
       <c r="P492" s="58"/>
     </row>
-    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="58"/>
       <c r="E493" s="58"/>
       <c r="F493" s="58"/>
@@ -8882,7 +8831,7 @@
       <c r="O493" s="58"/>
       <c r="P493" s="58"/>
     </row>
-    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="58"/>
       <c r="E494" s="58"/>
       <c r="F494" s="58"/>
@@ -8897,7 +8846,7 @@
       <c r="O494" s="58"/>
       <c r="P494" s="58"/>
     </row>
-    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="58"/>
       <c r="E495" s="58"/>
       <c r="F495" s="58"/>
@@ -8912,7 +8861,7 @@
       <c r="O495" s="58"/>
       <c r="P495" s="58"/>
     </row>
-    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="58"/>
       <c r="E496" s="58"/>
       <c r="F496" s="58"/>
@@ -8927,7 +8876,7 @@
       <c r="O496" s="58"/>
       <c r="P496" s="58"/>
     </row>
-    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="58"/>
       <c r="E497" s="58"/>
       <c r="F497" s="58"/>
@@ -8942,7 +8891,7 @@
       <c r="O497" s="58"/>
       <c r="P497" s="58"/>
     </row>
-    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="58"/>
       <c r="E498" s="58"/>
       <c r="F498" s="58"/>
@@ -8957,7 +8906,7 @@
       <c r="O498" s="58"/>
       <c r="P498" s="58"/>
     </row>
-    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="58"/>
       <c r="E499" s="58"/>
       <c r="F499" s="58"/>
@@ -8972,7 +8921,7 @@
       <c r="O499" s="58"/>
       <c r="P499" s="58"/>
     </row>
-    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="58"/>
       <c r="E500" s="58"/>
       <c r="F500" s="58"/>
@@ -8987,7 +8936,7 @@
       <c r="O500" s="58"/>
       <c r="P500" s="58"/>
     </row>
-    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="58"/>
       <c r="E501" s="58"/>
       <c r="F501" s="58"/>
@@ -9002,7 +8951,7 @@
       <c r="O501" s="58"/>
       <c r="P501" s="58"/>
     </row>
-    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="58"/>
       <c r="E502" s="58"/>
       <c r="F502" s="58"/>
@@ -9017,7 +8966,7 @@
       <c r="O502" s="58"/>
       <c r="P502" s="58"/>
     </row>
-    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="58"/>
       <c r="E503" s="58"/>
       <c r="F503" s="58"/>
@@ -9032,7 +8981,7 @@
       <c r="O503" s="58"/>
       <c r="P503" s="58"/>
     </row>
-    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="58"/>
       <c r="E504" s="58"/>
       <c r="F504" s="58"/>
@@ -9047,7 +8996,7 @@
       <c r="O504" s="58"/>
       <c r="P504" s="58"/>
     </row>
-    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="58"/>
       <c r="E505" s="58"/>
       <c r="F505" s="58"/>
@@ -9062,7 +9011,7 @@
       <c r="O505" s="58"/>
       <c r="P505" s="58"/>
     </row>
-    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="58"/>
       <c r="E506" s="58"/>
       <c r="F506" s="58"/>
@@ -9077,7 +9026,7 @@
       <c r="O506" s="58"/>
       <c r="P506" s="58"/>
     </row>
-    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="58"/>
       <c r="E507" s="58"/>
       <c r="F507" s="58"/>
@@ -9092,7 +9041,7 @@
       <c r="O507" s="58"/>
       <c r="P507" s="58"/>
     </row>
-    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="58"/>
       <c r="E508" s="58"/>
       <c r="F508" s="58"/>
@@ -9107,7 +9056,7 @@
       <c r="O508" s="58"/>
       <c r="P508" s="58"/>
     </row>
-    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="58"/>
       <c r="E509" s="58"/>
       <c r="F509" s="58"/>
@@ -9122,7 +9071,7 @@
       <c r="O509" s="58"/>
       <c r="P509" s="58"/>
     </row>
-    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="58"/>
       <c r="E510" s="58"/>
       <c r="F510" s="58"/>
@@ -9137,7 +9086,7 @@
       <c r="O510" s="58"/>
       <c r="P510" s="58"/>
     </row>
-    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="58"/>
       <c r="E511" s="58"/>
       <c r="F511" s="58"/>
@@ -9152,7 +9101,7 @@
       <c r="O511" s="58"/>
       <c r="P511" s="58"/>
     </row>
-    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="58"/>
       <c r="E512" s="58"/>
       <c r="F512" s="58"/>
@@ -9167,7 +9116,7 @@
       <c r="O512" s="58"/>
       <c r="P512" s="58"/>
     </row>
-    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="58"/>
       <c r="E513" s="58"/>
       <c r="F513" s="58"/>
@@ -9182,7 +9131,7 @@
       <c r="O513" s="58"/>
       <c r="P513" s="58"/>
     </row>
-    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="58"/>
       <c r="E514" s="58"/>
       <c r="F514" s="58"/>
@@ -9197,7 +9146,7 @@
       <c r="O514" s="58"/>
       <c r="P514" s="58"/>
     </row>
-    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="58"/>
       <c r="E515" s="58"/>
       <c r="F515" s="58"/>
@@ -9212,7 +9161,7 @@
       <c r="O515" s="58"/>
       <c r="P515" s="58"/>
     </row>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="58"/>
       <c r="E516" s="58"/>
       <c r="F516" s="58"/>
@@ -9227,7 +9176,7 @@
       <c r="O516" s="58"/>
       <c r="P516" s="58"/>
     </row>
-    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="58"/>
       <c r="E517" s="58"/>
       <c r="F517" s="58"/>
@@ -9242,7 +9191,7 @@
       <c r="O517" s="58"/>
       <c r="P517" s="58"/>
     </row>
-    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="58"/>
       <c r="E518" s="58"/>
       <c r="F518" s="58"/>
@@ -9257,7 +9206,7 @@
       <c r="O518" s="58"/>
       <c r="P518" s="58"/>
     </row>
-    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="58"/>
       <c r="E519" s="58"/>
       <c r="F519" s="58"/>
@@ -9272,7 +9221,7 @@
       <c r="O519" s="58"/>
       <c r="P519" s="58"/>
     </row>
-    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="58"/>
       <c r="E520" s="58"/>
       <c r="F520" s="58"/>
@@ -9287,7 +9236,7 @@
       <c r="O520" s="58"/>
       <c r="P520" s="58"/>
     </row>
-    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="58"/>
       <c r="E521" s="58"/>
       <c r="F521" s="58"/>
@@ -9302,7 +9251,7 @@
       <c r="O521" s="58"/>
       <c r="P521" s="58"/>
     </row>
-    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="58"/>
       <c r="E522" s="58"/>
       <c r="F522" s="58"/>
@@ -9317,7 +9266,7 @@
       <c r="O522" s="58"/>
       <c r="P522" s="58"/>
     </row>
-    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="58"/>
       <c r="E523" s="58"/>
       <c r="F523" s="58"/>
@@ -9332,7 +9281,7 @@
       <c r="O523" s="58"/>
       <c r="P523" s="58"/>
     </row>
-    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="58"/>
       <c r="E524" s="58"/>
       <c r="F524" s="58"/>
@@ -9347,7 +9296,7 @@
       <c r="O524" s="58"/>
       <c r="P524" s="58"/>
     </row>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="58"/>
       <c r="E525" s="58"/>
       <c r="F525" s="58"/>
@@ -9362,7 +9311,7 @@
       <c r="O525" s="58"/>
       <c r="P525" s="58"/>
     </row>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="58"/>
       <c r="E526" s="58"/>
       <c r="F526" s="58"/>
@@ -9377,7 +9326,7 @@
       <c r="O526" s="58"/>
       <c r="P526" s="58"/>
     </row>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="58"/>
       <c r="E527" s="58"/>
       <c r="F527" s="58"/>
@@ -9392,7 +9341,7 @@
       <c r="O527" s="58"/>
       <c r="P527" s="58"/>
     </row>
-    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="58"/>
       <c r="E528" s="58"/>
       <c r="F528" s="58"/>
@@ -9407,7 +9356,7 @@
       <c r="O528" s="58"/>
       <c r="P528" s="58"/>
     </row>
-    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="58"/>
       <c r="E529" s="58"/>
       <c r="F529" s="58"/>
@@ -9422,7 +9371,7 @@
       <c r="O529" s="58"/>
       <c r="P529" s="58"/>
     </row>
-    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="58"/>
       <c r="E530" s="58"/>
       <c r="F530" s="58"/>
@@ -9437,7 +9386,7 @@
       <c r="O530" s="58"/>
       <c r="P530" s="58"/>
     </row>
-    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="58"/>
       <c r="E531" s="58"/>
       <c r="F531" s="58"/>
@@ -9452,7 +9401,7 @@
       <c r="O531" s="58"/>
       <c r="P531" s="58"/>
     </row>
-    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="58"/>
       <c r="E532" s="58"/>
       <c r="F532" s="58"/>
@@ -9467,7 +9416,7 @@
       <c r="O532" s="58"/>
       <c r="P532" s="58"/>
     </row>
-    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="58"/>
       <c r="E533" s="58"/>
       <c r="F533" s="58"/>
@@ -9482,7 +9431,7 @@
       <c r="O533" s="58"/>
       <c r="P533" s="58"/>
     </row>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="58"/>
       <c r="E534" s="58"/>
       <c r="F534" s="58"/>
@@ -9497,7 +9446,7 @@
       <c r="O534" s="58"/>
       <c r="P534" s="58"/>
     </row>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="58"/>
       <c r="E535" s="58"/>
       <c r="F535" s="58"/>
@@ -9512,7 +9461,7 @@
       <c r="O535" s="58"/>
       <c r="P535" s="58"/>
     </row>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="58"/>
       <c r="E536" s="58"/>
       <c r="F536" s="58"/>
@@ -9527,7 +9476,7 @@
       <c r="O536" s="58"/>
       <c r="P536" s="58"/>
     </row>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="58"/>
       <c r="E537" s="58"/>
       <c r="F537" s="58"/>
@@ -9542,7 +9491,7 @@
       <c r="O537" s="58"/>
       <c r="P537" s="58"/>
     </row>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="58"/>
       <c r="E538" s="58"/>
       <c r="F538" s="58"/>
@@ -9557,7 +9506,7 @@
       <c r="O538" s="58"/>
       <c r="P538" s="58"/>
     </row>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="58"/>
       <c r="E539" s="58"/>
       <c r="F539" s="58"/>
@@ -9572,7 +9521,7 @@
       <c r="O539" s="58"/>
       <c r="P539" s="58"/>
     </row>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="58"/>
       <c r="E540" s="58"/>
       <c r="F540" s="58"/>
@@ -9587,7 +9536,7 @@
       <c r="O540" s="58"/>
       <c r="P540" s="58"/>
     </row>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="58"/>
       <c r="E541" s="58"/>
       <c r="F541" s="58"/>
@@ -9602,7 +9551,7 @@
       <c r="O541" s="58"/>
       <c r="P541" s="58"/>
     </row>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="58"/>
       <c r="E542" s="58"/>
       <c r="F542" s="58"/>
@@ -9617,7 +9566,7 @@
       <c r="O542" s="58"/>
       <c r="P542" s="58"/>
     </row>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="58"/>
       <c r="E543" s="58"/>
       <c r="F543" s="58"/>
@@ -9632,7 +9581,7 @@
       <c r="O543" s="58"/>
       <c r="P543" s="58"/>
     </row>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="58"/>
       <c r="E544" s="58"/>
       <c r="F544" s="58"/>
@@ -9647,7 +9596,7 @@
       <c r="O544" s="58"/>
       <c r="P544" s="58"/>
     </row>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="58"/>
       <c r="E545" s="58"/>
       <c r="F545" s="58"/>
@@ -9662,7 +9611,7 @@
       <c r="O545" s="58"/>
       <c r="P545" s="58"/>
     </row>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="58"/>
       <c r="E546" s="58"/>
       <c r="F546" s="58"/>
@@ -9677,7 +9626,7 @@
       <c r="O546" s="58"/>
       <c r="P546" s="58"/>
     </row>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="58"/>
       <c r="E547" s="58"/>
       <c r="F547" s="58"/>
@@ -9692,7 +9641,7 @@
       <c r="O547" s="58"/>
       <c r="P547" s="58"/>
     </row>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="58"/>
       <c r="E548" s="58"/>
       <c r="F548" s="58"/>
@@ -9707,7 +9656,7 @@
       <c r="O548" s="58"/>
       <c r="P548" s="58"/>
     </row>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="58"/>
       <c r="E549" s="58"/>
       <c r="F549" s="58"/>
@@ -9722,7 +9671,7 @@
       <c r="O549" s="58"/>
       <c r="P549" s="58"/>
     </row>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="58"/>
       <c r="E550" s="58"/>
       <c r="F550" s="58"/>
@@ -9737,7 +9686,7 @@
       <c r="O550" s="58"/>
       <c r="P550" s="58"/>
     </row>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="58"/>
       <c r="E551" s="58"/>
       <c r="F551" s="58"/>
@@ -9752,7 +9701,7 @@
       <c r="O551" s="58"/>
       <c r="P551" s="58"/>
     </row>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="58"/>
       <c r="E552" s="58"/>
       <c r="F552" s="58"/>
@@ -9767,7 +9716,7 @@
       <c r="O552" s="58"/>
       <c r="P552" s="58"/>
     </row>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="58"/>
       <c r="E553" s="58"/>
       <c r="F553" s="58"/>
@@ -9782,7 +9731,7 @@
       <c r="O553" s="58"/>
       <c r="P553" s="58"/>
     </row>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="58"/>
       <c r="E554" s="58"/>
       <c r="F554" s="58"/>
@@ -9797,7 +9746,7 @@
       <c r="O554" s="58"/>
       <c r="P554" s="58"/>
     </row>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="58"/>
       <c r="E555" s="58"/>
       <c r="F555" s="58"/>
@@ -9812,7 +9761,7 @@
       <c r="O555" s="58"/>
       <c r="P555" s="58"/>
     </row>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="58"/>
       <c r="E556" s="58"/>
       <c r="F556" s="58"/>
@@ -9827,7 +9776,7 @@
       <c r="O556" s="58"/>
       <c r="P556" s="58"/>
     </row>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="58"/>
       <c r="E557" s="58"/>
       <c r="F557" s="58"/>
@@ -9842,7 +9791,7 @@
       <c r="O557" s="58"/>
       <c r="P557" s="58"/>
     </row>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="58"/>
       <c r="E558" s="58"/>
       <c r="F558" s="58"/>
@@ -9857,7 +9806,7 @@
       <c r="O558" s="58"/>
       <c r="P558" s="58"/>
     </row>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="58"/>
       <c r="E559" s="58"/>
       <c r="F559" s="58"/>
@@ -9872,7 +9821,7 @@
       <c r="O559" s="58"/>
       <c r="P559" s="58"/>
     </row>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="58"/>
       <c r="E560" s="58"/>
       <c r="F560" s="58"/>
@@ -9887,7 +9836,7 @@
       <c r="O560" s="58"/>
       <c r="P560" s="58"/>
     </row>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="58"/>
       <c r="E561" s="58"/>
       <c r="F561" s="58"/>
@@ -9902,7 +9851,7 @@
       <c r="O561" s="58"/>
       <c r="P561" s="58"/>
     </row>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="58"/>
       <c r="E562" s="58"/>
       <c r="F562" s="58"/>
@@ -9917,7 +9866,7 @@
       <c r="O562" s="58"/>
       <c r="P562" s="58"/>
     </row>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="58"/>
       <c r="E563" s="58"/>
       <c r="F563" s="58"/>
@@ -9932,7 +9881,7 @@
       <c r="O563" s="58"/>
       <c r="P563" s="58"/>
     </row>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="58"/>
       <c r="E564" s="58"/>
       <c r="F564" s="58"/>
@@ -9947,7 +9896,7 @@
       <c r="O564" s="58"/>
       <c r="P564" s="58"/>
     </row>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="58"/>
       <c r="E565" s="58"/>
       <c r="F565" s="58"/>
@@ -9962,7 +9911,7 @@
       <c r="O565" s="58"/>
       <c r="P565" s="58"/>
     </row>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="58"/>
       <c r="E566" s="58"/>
       <c r="F566" s="58"/>
@@ -9977,7 +9926,7 @@
       <c r="O566" s="58"/>
       <c r="P566" s="58"/>
     </row>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="58"/>
       <c r="E567" s="58"/>
       <c r="F567" s="58"/>
@@ -9992,7 +9941,7 @@
       <c r="O567" s="58"/>
       <c r="P567" s="58"/>
     </row>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="58"/>
       <c r="E568" s="58"/>
       <c r="F568" s="58"/>
@@ -10007,7 +9956,7 @@
       <c r="O568" s="58"/>
       <c r="P568" s="58"/>
     </row>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="58"/>
       <c r="E569" s="58"/>
       <c r="F569" s="58"/>
@@ -10022,7 +9971,7 @@
       <c r="O569" s="58"/>
       <c r="P569" s="58"/>
     </row>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="58"/>
       <c r="E570" s="58"/>
       <c r="F570" s="58"/>
@@ -10037,7 +9986,7 @@
       <c r="O570" s="58"/>
       <c r="P570" s="58"/>
     </row>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="58"/>
       <c r="E571" s="58"/>
       <c r="F571" s="58"/>
@@ -10052,7 +10001,7 @@
       <c r="O571" s="58"/>
       <c r="P571" s="58"/>
     </row>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="58"/>
       <c r="E572" s="58"/>
       <c r="F572" s="58"/>
@@ -10067,7 +10016,7 @@
       <c r="O572" s="58"/>
       <c r="P572" s="58"/>
     </row>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="58"/>
       <c r="E573" s="58"/>
       <c r="F573" s="58"/>
@@ -10082,7 +10031,7 @@
       <c r="O573" s="58"/>
       <c r="P573" s="58"/>
     </row>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="58"/>
       <c r="E574" s="58"/>
       <c r="F574" s="58"/>
@@ -10097,7 +10046,7 @@
       <c r="O574" s="58"/>
       <c r="P574" s="58"/>
     </row>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="58"/>
       <c r="E575" s="58"/>
       <c r="F575" s="58"/>
@@ -10112,7 +10061,7 @@
       <c r="O575" s="58"/>
       <c r="P575" s="58"/>
     </row>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="58"/>
       <c r="E576" s="58"/>
       <c r="F576" s="58"/>
@@ -10127,7 +10076,7 @@
       <c r="O576" s="58"/>
       <c r="P576" s="58"/>
     </row>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="58"/>
       <c r="E577" s="58"/>
       <c r="F577" s="58"/>
@@ -10142,7 +10091,7 @@
       <c r="O577" s="58"/>
       <c r="P577" s="58"/>
     </row>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="58"/>
       <c r="E578" s="58"/>
       <c r="F578" s="58"/>
@@ -10157,7 +10106,7 @@
       <c r="O578" s="58"/>
       <c r="P578" s="58"/>
     </row>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="58"/>
       <c r="E579" s="58"/>
       <c r="F579" s="58"/>
@@ -10172,7 +10121,7 @@
       <c r="O579" s="58"/>
       <c r="P579" s="58"/>
     </row>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="58"/>
       <c r="E580" s="58"/>
       <c r="F580" s="58"/>
@@ -10187,7 +10136,7 @@
       <c r="O580" s="58"/>
       <c r="P580" s="58"/>
     </row>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="58"/>
       <c r="E581" s="58"/>
       <c r="F581" s="58"/>
@@ -10202,7 +10151,7 @@
       <c r="O581" s="58"/>
       <c r="P581" s="58"/>
     </row>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="58"/>
       <c r="E582" s="58"/>
       <c r="F582" s="58"/>
@@ -10217,7 +10166,7 @@
       <c r="O582" s="58"/>
       <c r="P582" s="58"/>
     </row>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="58"/>
       <c r="E583" s="58"/>
       <c r="F583" s="58"/>
@@ -10232,7 +10181,7 @@
       <c r="O583" s="58"/>
       <c r="P583" s="58"/>
     </row>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="58"/>
       <c r="E584" s="58"/>
       <c r="F584" s="58"/>
@@ -10247,7 +10196,7 @@
       <c r="O584" s="58"/>
       <c r="P584" s="58"/>
     </row>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="58"/>
       <c r="E585" s="58"/>
       <c r="F585" s="58"/>
@@ -10262,7 +10211,7 @@
       <c r="O585" s="58"/>
       <c r="P585" s="58"/>
     </row>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C586" s="58"/>
       <c r="E586" s="58"/>
       <c r="F586" s="58"/>
@@ -10277,7 +10226,7 @@
       <c r="O586" s="58"/>
       <c r="P586" s="58"/>
     </row>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="58"/>
       <c r="E587" s="58"/>
       <c r="F587" s="58"/>
@@ -10292,7 +10241,7 @@
       <c r="O587" s="58"/>
       <c r="P587" s="58"/>
     </row>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C588" s="58"/>
       <c r="E588" s="58"/>
       <c r="F588" s="58"/>
@@ -10307,7 +10256,7 @@
       <c r="O588" s="58"/>
       <c r="P588" s="58"/>
     </row>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C589" s="58"/>
       <c r="E589" s="58"/>
       <c r="F589" s="58"/>
@@ -10322,7 +10271,7 @@
       <c r="O589" s="58"/>
       <c r="P589" s="58"/>
     </row>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C590" s="58"/>
       <c r="E590" s="58"/>
       <c r="F590" s="58"/>
@@ -10337,7 +10286,7 @@
       <c r="O590" s="58"/>
       <c r="P590" s="58"/>
     </row>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C591" s="58"/>
       <c r="E591" s="58"/>
       <c r="F591" s="58"/>
@@ -10352,7 +10301,7 @@
       <c r="O591" s="58"/>
       <c r="P591" s="58"/>
     </row>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C592" s="58"/>
       <c r="E592" s="58"/>
       <c r="F592" s="58"/>
@@ -10367,7 +10316,7 @@
       <c r="O592" s="58"/>
       <c r="P592" s="58"/>
     </row>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C593" s="58"/>
       <c r="E593" s="58"/>
       <c r="F593" s="58"/>
@@ -10382,7 +10331,7 @@
       <c r="O593" s="58"/>
       <c r="P593" s="58"/>
     </row>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C594" s="58"/>
       <c r="E594" s="58"/>
       <c r="F594" s="58"/>
@@ -10397,7 +10346,7 @@
       <c r="O594" s="58"/>
       <c r="P594" s="58"/>
     </row>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C595" s="58"/>
       <c r="E595" s="58"/>
       <c r="F595" s="58"/>
@@ -10412,7 +10361,7 @@
       <c r="O595" s="58"/>
       <c r="P595" s="58"/>
     </row>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="58"/>
       <c r="E596" s="58"/>
       <c r="F596" s="58"/>
@@ -10427,7 +10376,7 @@
       <c r="O596" s="58"/>
       <c r="P596" s="58"/>
     </row>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="58"/>
       <c r="E597" s="58"/>
       <c r="F597" s="58"/>
@@ -10442,7 +10391,7 @@
       <c r="O597" s="58"/>
       <c r="P597" s="58"/>
     </row>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C598" s="58"/>
       <c r="E598" s="58"/>
       <c r="F598" s="58"/>
@@ -10457,7 +10406,7 @@
       <c r="O598" s="58"/>
       <c r="P598" s="58"/>
     </row>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C599" s="58"/>
       <c r="E599" s="58"/>
       <c r="F599" s="58"/>
@@ -10472,7 +10421,7 @@
       <c r="O599" s="58"/>
       <c r="P599" s="58"/>
     </row>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C600" s="58"/>
       <c r="E600" s="58"/>
       <c r="F600" s="58"/>
@@ -10487,7 +10436,7 @@
       <c r="O600" s="58"/>
       <c r="P600" s="58"/>
     </row>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C601" s="58"/>
       <c r="E601" s="58"/>
       <c r="F601" s="58"/>
@@ -10502,7 +10451,7 @@
       <c r="O601" s="58"/>
       <c r="P601" s="58"/>
     </row>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C602" s="58"/>
       <c r="E602" s="58"/>
       <c r="F602" s="58"/>
@@ -10517,7 +10466,7 @@
       <c r="O602" s="58"/>
       <c r="P602" s="58"/>
     </row>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C603" s="58"/>
       <c r="E603" s="58"/>
       <c r="F603" s="58"/>
@@ -10532,7 +10481,7 @@
       <c r="O603" s="58"/>
       <c r="P603" s="58"/>
     </row>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C604" s="58"/>
       <c r="E604" s="58"/>
       <c r="F604" s="58"/>
@@ -10547,7 +10496,7 @@
       <c r="O604" s="58"/>
       <c r="P604" s="58"/>
     </row>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="58"/>
       <c r="E605" s="58"/>
       <c r="F605" s="58"/>
@@ -10562,7 +10511,7 @@
       <c r="O605" s="58"/>
       <c r="P605" s="58"/>
     </row>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C606" s="58"/>
       <c r="E606" s="58"/>
       <c r="F606" s="58"/>
@@ -10577,7 +10526,7 @@
       <c r="O606" s="58"/>
       <c r="P606" s="58"/>
     </row>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C607" s="58"/>
       <c r="E607" s="58"/>
       <c r="F607" s="58"/>
@@ -10592,7 +10541,7 @@
       <c r="O607" s="58"/>
       <c r="P607" s="58"/>
     </row>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="58"/>
       <c r="E608" s="58"/>
       <c r="F608" s="58"/>
@@ -10607,7 +10556,7 @@
       <c r="O608" s="58"/>
       <c r="P608" s="58"/>
     </row>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="58"/>
       <c r="E609" s="58"/>
       <c r="F609" s="58"/>
@@ -10622,7 +10571,7 @@
       <c r="O609" s="58"/>
       <c r="P609" s="58"/>
     </row>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="58"/>
       <c r="E610" s="58"/>
       <c r="F610" s="58"/>
@@ -10637,7 +10586,7 @@
       <c r="O610" s="58"/>
       <c r="P610" s="58"/>
     </row>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="58"/>
       <c r="E611" s="58"/>
       <c r="F611" s="58"/>
@@ -10652,7 +10601,7 @@
       <c r="O611" s="58"/>
       <c r="P611" s="58"/>
     </row>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C612" s="58"/>
       <c r="E612" s="58"/>
       <c r="F612" s="58"/>
@@ -10667,7 +10616,7 @@
       <c r="O612" s="58"/>
       <c r="P612" s="58"/>
     </row>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C613" s="58"/>
       <c r="E613" s="58"/>
       <c r="F613" s="58"/>
@@ -10682,7 +10631,7 @@
       <c r="O613" s="58"/>
       <c r="P613" s="58"/>
     </row>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C614" s="58"/>
       <c r="E614" s="58"/>
       <c r="F614" s="58"/>
@@ -10697,7 +10646,7 @@
       <c r="O614" s="58"/>
       <c r="P614" s="58"/>
     </row>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C615" s="58"/>
       <c r="E615" s="58"/>
       <c r="F615" s="58"/>
@@ -10712,7 +10661,7 @@
       <c r="O615" s="58"/>
       <c r="P615" s="58"/>
     </row>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C616" s="58"/>
       <c r="E616" s="58"/>
       <c r="F616" s="58"/>
@@ -10727,7 +10676,7 @@
       <c r="O616" s="58"/>
       <c r="P616" s="58"/>
     </row>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C617" s="58"/>
       <c r="E617" s="58"/>
       <c r="F617" s="58"/>
@@ -10742,7 +10691,7 @@
       <c r="O617" s="58"/>
       <c r="P617" s="58"/>
     </row>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C618" s="58"/>
       <c r="E618" s="58"/>
       <c r="F618" s="58"/>
@@ -10757,7 +10706,7 @@
       <c r="O618" s="58"/>
       <c r="P618" s="58"/>
     </row>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C619" s="58"/>
       <c r="E619" s="58"/>
       <c r="F619" s="58"/>
@@ -10772,7 +10721,7 @@
       <c r="O619" s="58"/>
       <c r="P619" s="58"/>
     </row>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C620" s="58"/>
       <c r="E620" s="58"/>
       <c r="F620" s="58"/>
@@ -10787,7 +10736,7 @@
       <c r="O620" s="58"/>
       <c r="P620" s="58"/>
     </row>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C621" s="58"/>
       <c r="E621" s="58"/>
       <c r="F621" s="58"/>
@@ -10802,7 +10751,7 @@
       <c r="O621" s="58"/>
       <c r="P621" s="58"/>
     </row>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C622" s="58"/>
       <c r="E622" s="58"/>
       <c r="F622" s="58"/>
@@ -10817,7 +10766,7 @@
       <c r="O622" s="58"/>
       <c r="P622" s="58"/>
     </row>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C623" s="58"/>
       <c r="E623" s="58"/>
       <c r="F623" s="58"/>
@@ -10832,7 +10781,7 @@
       <c r="O623" s="58"/>
       <c r="P623" s="58"/>
     </row>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C624" s="58"/>
       <c r="E624" s="58"/>
       <c r="F624" s="58"/>
@@ -10847,7 +10796,7 @@
       <c r="O624" s="58"/>
       <c r="P624" s="58"/>
     </row>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C625" s="58"/>
       <c r="E625" s="58"/>
       <c r="F625" s="58"/>
@@ -10862,7 +10811,7 @@
       <c r="O625" s="58"/>
       <c r="P625" s="58"/>
     </row>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C626" s="58"/>
       <c r="E626" s="58"/>
       <c r="F626" s="58"/>
@@ -10877,7 +10826,7 @@
       <c r="O626" s="58"/>
       <c r="P626" s="58"/>
     </row>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C627" s="58"/>
       <c r="E627" s="58"/>
       <c r="F627" s="58"/>
@@ -10892,7 +10841,7 @@
       <c r="O627" s="58"/>
       <c r="P627" s="58"/>
     </row>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C628" s="58"/>
       <c r="E628" s="58"/>
       <c r="F628" s="58"/>
@@ -10907,7 +10856,7 @@
       <c r="O628" s="58"/>
       <c r="P628" s="58"/>
     </row>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C629" s="58"/>
       <c r="E629" s="58"/>
       <c r="F629" s="58"/>
@@ -10922,7 +10871,7 @@
       <c r="O629" s="58"/>
       <c r="P629" s="58"/>
     </row>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C630" s="58"/>
       <c r="E630" s="58"/>
       <c r="F630" s="58"/>
@@ -10937,7 +10886,7 @@
       <c r="O630" s="58"/>
       <c r="P630" s="58"/>
     </row>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C631" s="58"/>
       <c r="E631" s="58"/>
       <c r="F631" s="58"/>
@@ -10952,7 +10901,7 @@
       <c r="O631" s="58"/>
       <c r="P631" s="58"/>
     </row>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C632" s="58"/>
       <c r="E632" s="58"/>
       <c r="F632" s="58"/>
@@ -10967,7 +10916,7 @@
       <c r="O632" s="58"/>
       <c r="P632" s="58"/>
     </row>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C633" s="58"/>
       <c r="E633" s="58"/>
       <c r="F633" s="58"/>
@@ -10982,7 +10931,7 @@
       <c r="O633" s="58"/>
       <c r="P633" s="58"/>
     </row>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C634" s="58"/>
       <c r="E634" s="58"/>
       <c r="F634" s="58"/>
@@ -10997,7 +10946,7 @@
       <c r="O634" s="58"/>
       <c r="P634" s="58"/>
     </row>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C635" s="58"/>
       <c r="E635" s="58"/>
       <c r="F635" s="58"/>
@@ -11012,7 +10961,7 @@
       <c r="O635" s="58"/>
       <c r="P635" s="58"/>
     </row>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C636" s="58"/>
       <c r="E636" s="58"/>
       <c r="F636" s="58"/>
@@ -11027,7 +10976,7 @@
       <c r="O636" s="58"/>
       <c r="P636" s="58"/>
     </row>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C637" s="58"/>
       <c r="E637" s="58"/>
       <c r="F637" s="58"/>
@@ -11042,7 +10991,7 @@
       <c r="O637" s="58"/>
       <c r="P637" s="58"/>
     </row>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C638" s="58"/>
       <c r="E638" s="58"/>
       <c r="F638" s="58"/>
@@ -11057,7 +11006,7 @@
       <c r="O638" s="58"/>
       <c r="P638" s="58"/>
     </row>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C639" s="58"/>
       <c r="E639" s="58"/>
       <c r="F639" s="58"/>
@@ -11072,7 +11021,7 @@
       <c r="O639" s="58"/>
       <c r="P639" s="58"/>
     </row>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C640" s="58"/>
       <c r="E640" s="58"/>
       <c r="F640" s="58"/>
@@ -11087,7 +11036,7 @@
       <c r="O640" s="58"/>
       <c r="P640" s="58"/>
     </row>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C641" s="58"/>
       <c r="E641" s="58"/>
       <c r="F641" s="58"/>
@@ -11102,7 +11051,7 @@
       <c r="O641" s="58"/>
       <c r="P641" s="58"/>
     </row>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C642" s="58"/>
       <c r="E642" s="58"/>
       <c r="F642" s="58"/>
@@ -11117,7 +11066,7 @@
       <c r="O642" s="58"/>
       <c r="P642" s="58"/>
     </row>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C643" s="58"/>
       <c r="E643" s="58"/>
       <c r="F643" s="58"/>
@@ -11132,7 +11081,7 @@
       <c r="O643" s="58"/>
       <c r="P643" s="58"/>
     </row>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C644" s="58"/>
       <c r="E644" s="58"/>
       <c r="F644" s="58"/>
@@ -11147,7 +11096,7 @@
       <c r="O644" s="58"/>
       <c r="P644" s="58"/>
     </row>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C645" s="58"/>
       <c r="E645" s="58"/>
       <c r="F645" s="58"/>
@@ -11162,7 +11111,7 @@
       <c r="O645" s="58"/>
       <c r="P645" s="58"/>
     </row>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C646" s="58"/>
       <c r="E646" s="58"/>
       <c r="F646" s="58"/>
@@ -11177,7 +11126,7 @@
       <c r="O646" s="58"/>
       <c r="P646" s="58"/>
     </row>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C647" s="58"/>
       <c r="E647" s="58"/>
       <c r="F647" s="58"/>
@@ -11192,7 +11141,7 @@
       <c r="O647" s="58"/>
       <c r="P647" s="58"/>
     </row>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C648" s="58"/>
       <c r="E648" s="58"/>
       <c r="F648" s="58"/>
@@ -11207,7 +11156,7 @@
       <c r="O648" s="58"/>
       <c r="P648" s="58"/>
     </row>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C649" s="58"/>
       <c r="E649" s="58"/>
       <c r="F649" s="58"/>
@@ -11222,7 +11171,7 @@
       <c r="O649" s="58"/>
       <c r="P649" s="58"/>
     </row>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C650" s="58"/>
       <c r="E650" s="58"/>
       <c r="F650" s="58"/>
@@ -11237,7 +11186,7 @@
       <c r="O650" s="58"/>
       <c r="P650" s="58"/>
     </row>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C651" s="58"/>
       <c r="E651" s="58"/>
       <c r="F651" s="58"/>
@@ -11252,7 +11201,7 @@
       <c r="O651" s="58"/>
       <c r="P651" s="58"/>
     </row>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C652" s="58"/>
       <c r="E652" s="58"/>
       <c r="F652" s="58"/>
@@ -11267,7 +11216,7 @@
       <c r="O652" s="58"/>
       <c r="P652" s="58"/>
     </row>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C653" s="58"/>
       <c r="E653" s="58"/>
       <c r="F653" s="58"/>
@@ -11282,7 +11231,7 @@
       <c r="O653" s="58"/>
       <c r="P653" s="58"/>
     </row>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C654" s="58"/>
       <c r="E654" s="58"/>
       <c r="F654" s="58"/>
@@ -11297,7 +11246,7 @@
       <c r="O654" s="58"/>
       <c r="P654" s="58"/>
     </row>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C655" s="58"/>
       <c r="E655" s="58"/>
       <c r="F655" s="58"/>
@@ -11312,7 +11261,7 @@
       <c r="O655" s="58"/>
       <c r="P655" s="58"/>
     </row>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C656" s="58"/>
       <c r="E656" s="58"/>
       <c r="F656" s="58"/>
@@ -11327,7 +11276,7 @@
       <c r="O656" s="58"/>
       <c r="P656" s="58"/>
     </row>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C657" s="58"/>
       <c r="E657" s="58"/>
       <c r="F657" s="58"/>
@@ -11342,7 +11291,7 @@
       <c r="O657" s="58"/>
       <c r="P657" s="58"/>
     </row>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C658" s="58"/>
       <c r="E658" s="58"/>
       <c r="F658" s="58"/>
@@ -11357,7 +11306,7 @@
       <c r="O658" s="58"/>
       <c r="P658" s="58"/>
     </row>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C659" s="58"/>
       <c r="E659" s="58"/>
       <c r="F659" s="58"/>
@@ -11372,7 +11321,7 @@
       <c r="O659" s="58"/>
       <c r="P659" s="58"/>
     </row>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C660" s="58"/>
       <c r="E660" s="58"/>
       <c r="F660" s="58"/>
@@ -11387,7 +11336,7 @@
       <c r="O660" s="58"/>
       <c r="P660" s="58"/>
     </row>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C661" s="58"/>
       <c r="E661" s="58"/>
       <c r="F661" s="58"/>
@@ -11402,7 +11351,7 @@
       <c r="O661" s="58"/>
       <c r="P661" s="58"/>
     </row>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C662" s="58"/>
       <c r="E662" s="58"/>
       <c r="F662" s="58"/>
@@ -11417,7 +11366,7 @@
       <c r="O662" s="58"/>
       <c r="P662" s="58"/>
     </row>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C663" s="58"/>
       <c r="E663" s="58"/>
       <c r="F663" s="58"/>
@@ -11432,7 +11381,7 @@
       <c r="O663" s="58"/>
       <c r="P663" s="58"/>
     </row>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C664" s="58"/>
       <c r="E664" s="58"/>
       <c r="F664" s="58"/>
@@ -11447,7 +11396,7 @@
       <c r="O664" s="58"/>
       <c r="P664" s="58"/>
     </row>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C665" s="58"/>
       <c r="E665" s="58"/>
       <c r="F665" s="58"/>
@@ -11462,7 +11411,7 @@
       <c r="O665" s="58"/>
       <c r="P665" s="58"/>
     </row>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C666" s="58"/>
       <c r="E666" s="58"/>
       <c r="F666" s="58"/>
@@ -11477,7 +11426,7 @@
       <c r="O666" s="58"/>
       <c r="P666" s="58"/>
     </row>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C667" s="58"/>
       <c r="E667" s="58"/>
       <c r="F667" s="58"/>
@@ -11492,7 +11441,7 @@
       <c r="O667" s="58"/>
       <c r="P667" s="58"/>
     </row>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C668" s="58"/>
       <c r="E668" s="58"/>
       <c r="F668" s="58"/>
@@ -11507,7 +11456,7 @@
       <c r="O668" s="58"/>
       <c r="P668" s="58"/>
     </row>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C669" s="58"/>
       <c r="E669" s="58"/>
       <c r="F669" s="58"/>
@@ -11522,7 +11471,7 @@
       <c r="O669" s="58"/>
       <c r="P669" s="58"/>
     </row>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C670" s="58"/>
       <c r="E670" s="58"/>
       <c r="F670" s="58"/>
@@ -11537,7 +11486,7 @@
       <c r="O670" s="58"/>
       <c r="P670" s="58"/>
     </row>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C671" s="58"/>
       <c r="E671" s="58"/>
       <c r="F671" s="58"/>
@@ -11552,7 +11501,7 @@
       <c r="O671" s="58"/>
       <c r="P671" s="58"/>
     </row>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C672" s="58"/>
       <c r="E672" s="58"/>
       <c r="F672" s="58"/>
@@ -11567,7 +11516,7 @@
       <c r="O672" s="58"/>
       <c r="P672" s="58"/>
     </row>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C673" s="58"/>
       <c r="E673" s="58"/>
       <c r="F673" s="58"/>
@@ -11582,7 +11531,7 @@
       <c r="O673" s="58"/>
       <c r="P673" s="58"/>
     </row>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C674" s="58"/>
       <c r="E674" s="58"/>
       <c r="F674" s="58"/>
@@ -11597,7 +11546,7 @@
       <c r="O674" s="58"/>
       <c r="P674" s="58"/>
     </row>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C675" s="58"/>
       <c r="E675" s="58"/>
       <c r="F675" s="58"/>
@@ -11612,7 +11561,7 @@
       <c r="O675" s="58"/>
       <c r="P675" s="58"/>
     </row>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C676" s="58"/>
       <c r="E676" s="58"/>
       <c r="F676" s="58"/>
@@ -11627,7 +11576,7 @@
       <c r="O676" s="58"/>
       <c r="P676" s="58"/>
     </row>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C677" s="58"/>
       <c r="E677" s="58"/>
       <c r="F677" s="58"/>
@@ -11642,7 +11591,7 @@
       <c r="O677" s="58"/>
       <c r="P677" s="58"/>
     </row>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C678" s="58"/>
       <c r="E678" s="58"/>
       <c r="F678" s="58"/>
@@ -11657,7 +11606,7 @@
       <c r="O678" s="58"/>
       <c r="P678" s="58"/>
     </row>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C679" s="58"/>
       <c r="E679" s="58"/>
       <c r="F679" s="58"/>
@@ -11672,7 +11621,7 @@
       <c r="O679" s="58"/>
       <c r="P679" s="58"/>
     </row>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C680" s="58"/>
       <c r="E680" s="58"/>
       <c r="F680" s="58"/>
@@ -11687,7 +11636,7 @@
       <c r="O680" s="58"/>
       <c r="P680" s="58"/>
     </row>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C681" s="58"/>
       <c r="E681" s="58"/>
       <c r="F681" s="58"/>
@@ -11702,7 +11651,7 @@
       <c r="O681" s="58"/>
       <c r="P681" s="58"/>
     </row>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C682" s="58"/>
       <c r="E682" s="58"/>
       <c r="F682" s="58"/>
@@ -11717,7 +11666,7 @@
       <c r="O682" s="58"/>
       <c r="P682" s="58"/>
     </row>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C683" s="58"/>
       <c r="E683" s="58"/>
       <c r="F683" s="58"/>
@@ -11732,7 +11681,7 @@
       <c r="O683" s="58"/>
       <c r="P683" s="58"/>
     </row>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C684" s="58"/>
       <c r="E684" s="58"/>
       <c r="F684" s="58"/>
@@ -11747,7 +11696,7 @@
       <c r="O684" s="58"/>
       <c r="P684" s="58"/>
     </row>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C685" s="58"/>
       <c r="E685" s="58"/>
       <c r="F685" s="58"/>
@@ -11762,7 +11711,7 @@
       <c r="O685" s="58"/>
       <c r="P685" s="58"/>
     </row>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C686" s="58"/>
       <c r="E686" s="58"/>
       <c r="F686" s="58"/>
@@ -11777,7 +11726,7 @@
       <c r="O686" s="58"/>
       <c r="P686" s="58"/>
     </row>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C687" s="58"/>
       <c r="E687" s="58"/>
       <c r="F687" s="58"/>
@@ -11792,7 +11741,7 @@
       <c r="O687" s="58"/>
       <c r="P687" s="58"/>
     </row>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C688" s="58"/>
       <c r="E688" s="58"/>
       <c r="F688" s="58"/>
@@ -11807,7 +11756,7 @@
       <c r="O688" s="58"/>
       <c r="P688" s="58"/>
     </row>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C689" s="58"/>
       <c r="E689" s="58"/>
       <c r="F689" s="58"/>
@@ -11822,7 +11771,7 @@
       <c r="O689" s="58"/>
       <c r="P689" s="58"/>
     </row>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C690" s="58"/>
       <c r="E690" s="58"/>
       <c r="F690" s="58"/>
@@ -11837,7 +11786,7 @@
       <c r="O690" s="58"/>
       <c r="P690" s="58"/>
     </row>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C691" s="58"/>
       <c r="E691" s="58"/>
       <c r="F691" s="58"/>
@@ -11852,7 +11801,7 @@
       <c r="O691" s="58"/>
       <c r="P691" s="58"/>
     </row>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C692" s="58"/>
       <c r="E692" s="58"/>
       <c r="F692" s="58"/>
@@ -11867,7 +11816,7 @@
       <c r="O692" s="58"/>
       <c r="P692" s="58"/>
     </row>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C693" s="58"/>
       <c r="E693" s="58"/>
       <c r="F693" s="58"/>
@@ -11882,7 +11831,7 @@
       <c r="O693" s="58"/>
       <c r="P693" s="58"/>
     </row>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C694" s="58"/>
       <c r="E694" s="58"/>
       <c r="F694" s="58"/>
@@ -11897,7 +11846,7 @@
       <c r="O694" s="58"/>
       <c r="P694" s="58"/>
     </row>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C695" s="58"/>
       <c r="E695" s="58"/>
       <c r="F695" s="58"/>
@@ -11912,7 +11861,7 @@
       <c r="O695" s="58"/>
       <c r="P695" s="58"/>
     </row>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C696" s="58"/>
       <c r="E696" s="58"/>
       <c r="F696" s="58"/>
@@ -11927,7 +11876,7 @@
       <c r="O696" s="58"/>
       <c r="P696" s="58"/>
     </row>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C697" s="58"/>
       <c r="E697" s="58"/>
       <c r="F697" s="58"/>
@@ -11942,7 +11891,7 @@
       <c r="O697" s="58"/>
       <c r="P697" s="58"/>
     </row>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C698" s="58"/>
       <c r="E698" s="58"/>
       <c r="F698" s="58"/>
@@ -11957,7 +11906,7 @@
       <c r="O698" s="58"/>
       <c r="P698" s="58"/>
     </row>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C699" s="58"/>
       <c r="E699" s="58"/>
       <c r="F699" s="58"/>
@@ -11972,7 +11921,7 @@
       <c r="O699" s="58"/>
       <c r="P699" s="58"/>
     </row>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C700" s="58"/>
       <c r="E700" s="58"/>
       <c r="F700" s="58"/>
@@ -11987,7 +11936,7 @@
       <c r="O700" s="58"/>
       <c r="P700" s="58"/>
     </row>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C701" s="58"/>
       <c r="E701" s="58"/>
       <c r="F701" s="58"/>
@@ -12002,7 +11951,7 @@
       <c r="O701" s="58"/>
       <c r="P701" s="58"/>
     </row>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C702" s="58"/>
       <c r="E702" s="58"/>
       <c r="F702" s="58"/>
@@ -12017,7 +11966,7 @@
       <c r="O702" s="58"/>
       <c r="P702" s="58"/>
     </row>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C703" s="58"/>
       <c r="E703" s="58"/>
       <c r="F703" s="58"/>
@@ -12032,7 +11981,7 @@
       <c r="O703" s="58"/>
       <c r="P703" s="58"/>
     </row>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C704" s="58"/>
       <c r="E704" s="58"/>
       <c r="F704" s="58"/>
@@ -12047,7 +11996,7 @@
       <c r="O704" s="58"/>
       <c r="P704" s="58"/>
     </row>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C705" s="58"/>
       <c r="E705" s="58"/>
       <c r="F705" s="58"/>
@@ -12062,7 +12011,7 @@
       <c r="O705" s="58"/>
       <c r="P705" s="58"/>
     </row>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C706" s="58"/>
       <c r="E706" s="58"/>
       <c r="F706" s="58"/>
@@ -12077,7 +12026,7 @@
       <c r="O706" s="58"/>
       <c r="P706" s="58"/>
     </row>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C707" s="58"/>
       <c r="E707" s="58"/>
       <c r="F707" s="58"/>
@@ -12092,7 +12041,7 @@
       <c r="O707" s="58"/>
       <c r="P707" s="58"/>
     </row>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C708" s="58"/>
       <c r="E708" s="58"/>
       <c r="F708" s="58"/>
@@ -12107,7 +12056,7 @@
       <c r="O708" s="58"/>
       <c r="P708" s="58"/>
     </row>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C709" s="58"/>
       <c r="E709" s="58"/>
       <c r="F709" s="58"/>
@@ -12122,7 +12071,7 @@
       <c r="O709" s="58"/>
       <c r="P709" s="58"/>
     </row>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C710" s="58"/>
       <c r="E710" s="58"/>
       <c r="F710" s="58"/>
@@ -12137,7 +12086,7 @@
       <c r="O710" s="58"/>
       <c r="P710" s="58"/>
     </row>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C711" s="58"/>
       <c r="E711" s="58"/>
       <c r="F711" s="58"/>
@@ -12152,7 +12101,7 @@
       <c r="O711" s="58"/>
       <c r="P711" s="58"/>
     </row>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C712" s="58"/>
       <c r="E712" s="58"/>
       <c r="F712" s="58"/>
@@ -12167,7 +12116,7 @@
       <c r="O712" s="58"/>
       <c r="P712" s="58"/>
     </row>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C713" s="58"/>
       <c r="E713" s="58"/>
       <c r="F713" s="58"/>
@@ -12182,7 +12131,7 @@
       <c r="O713" s="58"/>
       <c r="P713" s="58"/>
     </row>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C714" s="58"/>
       <c r="E714" s="58"/>
       <c r="F714" s="58"/>
@@ -12197,7 +12146,7 @@
       <c r="O714" s="58"/>
       <c r="P714" s="58"/>
     </row>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C715" s="58"/>
       <c r="E715" s="58"/>
       <c r="F715" s="58"/>
@@ -12212,7 +12161,7 @@
       <c r="O715" s="58"/>
       <c r="P715" s="58"/>
     </row>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C716" s="58"/>
       <c r="E716" s="58"/>
       <c r="F716" s="58"/>
@@ -12227,7 +12176,7 @@
       <c r="O716" s="58"/>
       <c r="P716" s="58"/>
     </row>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C717" s="58"/>
       <c r="E717" s="58"/>
       <c r="F717" s="58"/>
@@ -12242,7 +12191,7 @@
       <c r="O717" s="58"/>
       <c r="P717" s="58"/>
     </row>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C718" s="58"/>
       <c r="E718" s="58"/>
       <c r="F718" s="58"/>
@@ -12257,7 +12206,7 @@
       <c r="O718" s="58"/>
       <c r="P718" s="58"/>
     </row>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C719" s="58"/>
       <c r="E719" s="58"/>
       <c r="F719" s="58"/>
@@ -12272,7 +12221,7 @@
       <c r="O719" s="58"/>
       <c r="P719" s="58"/>
     </row>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C720" s="58"/>
       <c r="E720" s="58"/>
       <c r="F720" s="58"/>
@@ -12287,7 +12236,7 @@
       <c r="O720" s="58"/>
       <c r="P720" s="58"/>
     </row>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C721" s="58"/>
       <c r="E721" s="58"/>
       <c r="F721" s="58"/>
@@ -12302,7 +12251,7 @@
       <c r="O721" s="58"/>
       <c r="P721" s="58"/>
     </row>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C722" s="58"/>
       <c r="E722" s="58"/>
       <c r="F722" s="58"/>
@@ -12317,7 +12266,7 @@
       <c r="O722" s="58"/>
       <c r="P722" s="58"/>
     </row>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C723" s="58"/>
       <c r="E723" s="58"/>
       <c r="F723" s="58"/>
@@ -12332,7 +12281,7 @@
       <c r="O723" s="58"/>
       <c r="P723" s="58"/>
     </row>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C724" s="58"/>
       <c r="E724" s="58"/>
       <c r="F724" s="58"/>
@@ -12347,7 +12296,7 @@
       <c r="O724" s="58"/>
       <c r="P724" s="58"/>
     </row>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C725" s="58"/>
       <c r="E725" s="58"/>
       <c r="F725" s="58"/>
@@ -12362,7 +12311,7 @@
       <c r="O725" s="58"/>
       <c r="P725" s="58"/>
     </row>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C726" s="58"/>
       <c r="E726" s="58"/>
       <c r="F726" s="58"/>
@@ -12377,7 +12326,7 @@
       <c r="O726" s="58"/>
       <c r="P726" s="58"/>
     </row>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C727" s="58"/>
       <c r="E727" s="58"/>
       <c r="F727" s="58"/>
@@ -12392,7 +12341,7 @@
       <c r="O727" s="58"/>
       <c r="P727" s="58"/>
     </row>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C728" s="58"/>
       <c r="E728" s="58"/>
       <c r="F728" s="58"/>
@@ -12407,7 +12356,7 @@
       <c r="O728" s="58"/>
       <c r="P728" s="58"/>
     </row>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C729" s="58"/>
       <c r="E729" s="58"/>
       <c r="F729" s="58"/>
@@ -12422,7 +12371,7 @@
       <c r="O729" s="58"/>
       <c r="P729" s="58"/>
     </row>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C730" s="58"/>
       <c r="E730" s="58"/>
       <c r="F730" s="58"/>
@@ -12437,7 +12386,7 @@
       <c r="O730" s="58"/>
       <c r="P730" s="58"/>
     </row>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C731" s="58"/>
       <c r="E731" s="58"/>
       <c r="F731" s="58"/>
@@ -12452,7 +12401,7 @@
       <c r="O731" s="58"/>
       <c r="P731" s="58"/>
     </row>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C732" s="58"/>
       <c r="E732" s="58"/>
       <c r="F732" s="58"/>
@@ -12467,7 +12416,7 @@
       <c r="O732" s="58"/>
       <c r="P732" s="58"/>
     </row>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C733" s="58"/>
       <c r="E733" s="58"/>
       <c r="F733" s="58"/>
@@ -12482,7 +12431,7 @@
       <c r="O733" s="58"/>
       <c r="P733" s="58"/>
     </row>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C734" s="58"/>
       <c r="E734" s="58"/>
       <c r="F734" s="58"/>
@@ -12497,7 +12446,7 @@
       <c r="O734" s="58"/>
       <c r="P734" s="58"/>
     </row>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C735" s="58"/>
       <c r="E735" s="58"/>
       <c r="F735" s="58"/>
@@ -12512,7 +12461,7 @@
       <c r="O735" s="58"/>
       <c r="P735" s="58"/>
     </row>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C736" s="58"/>
       <c r="E736" s="58"/>
       <c r="F736" s="58"/>
@@ -12527,7 +12476,7 @@
       <c r="O736" s="58"/>
       <c r="P736" s="58"/>
     </row>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C737" s="58"/>
       <c r="E737" s="58"/>
       <c r="F737" s="58"/>
@@ -12542,7 +12491,7 @@
       <c r="O737" s="58"/>
       <c r="P737" s="58"/>
     </row>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C738" s="58"/>
       <c r="E738" s="58"/>
       <c r="F738" s="58"/>
@@ -12557,7 +12506,7 @@
       <c r="O738" s="58"/>
       <c r="P738" s="58"/>
     </row>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C739" s="58"/>
       <c r="E739" s="58"/>
       <c r="F739" s="58"/>
@@ -12572,7 +12521,7 @@
       <c r="O739" s="58"/>
       <c r="P739" s="58"/>
     </row>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C740" s="58"/>
       <c r="E740" s="58"/>
       <c r="F740" s="58"/>
@@ -12587,7 +12536,7 @@
       <c r="O740" s="58"/>
       <c r="P740" s="58"/>
     </row>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C741" s="58"/>
       <c r="E741" s="58"/>
       <c r="F741" s="58"/>
@@ -12602,7 +12551,7 @@
       <c r="O741" s="58"/>
       <c r="P741" s="58"/>
     </row>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C742" s="58"/>
       <c r="E742" s="58"/>
       <c r="F742" s="58"/>
@@ -12617,7 +12566,7 @@
       <c r="O742" s="58"/>
       <c r="P742" s="58"/>
     </row>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C743" s="58"/>
       <c r="E743" s="58"/>
       <c r="F743" s="58"/>
@@ -12632,7 +12581,7 @@
       <c r="O743" s="58"/>
       <c r="P743" s="58"/>
     </row>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C744" s="58"/>
       <c r="E744" s="58"/>
       <c r="F744" s="58"/>
@@ -12647,7 +12596,7 @@
       <c r="O744" s="58"/>
       <c r="P744" s="58"/>
     </row>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C745" s="58"/>
       <c r="E745" s="58"/>
       <c r="F745" s="58"/>
@@ -12662,7 +12611,7 @@
       <c r="O745" s="58"/>
       <c r="P745" s="58"/>
     </row>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C746" s="58"/>
       <c r="E746" s="58"/>
       <c r="F746" s="58"/>
@@ -12677,7 +12626,7 @@
       <c r="O746" s="58"/>
       <c r="P746" s="58"/>
     </row>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C747" s="58"/>
       <c r="E747" s="58"/>
       <c r="F747" s="58"/>
@@ -12692,7 +12641,7 @@
       <c r="O747" s="58"/>
       <c r="P747" s="58"/>
     </row>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C748" s="58"/>
       <c r="E748" s="58"/>
       <c r="F748" s="58"/>
@@ -12707,7 +12656,7 @@
       <c r="O748" s="58"/>
       <c r="P748" s="58"/>
     </row>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C749" s="58"/>
       <c r="E749" s="58"/>
       <c r="F749" s="58"/>
@@ -12722,7 +12671,7 @@
       <c r="O749" s="58"/>
       <c r="P749" s="58"/>
     </row>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C750" s="58"/>
       <c r="E750" s="58"/>
       <c r="F750" s="58"/>
@@ -12737,7 +12686,7 @@
       <c r="O750" s="58"/>
       <c r="P750" s="58"/>
     </row>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C751" s="58"/>
       <c r="E751" s="58"/>
       <c r="F751" s="58"/>
@@ -12752,7 +12701,7 @@
       <c r="O751" s="58"/>
       <c r="P751" s="58"/>
     </row>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C752" s="58"/>
       <c r="E752" s="58"/>
       <c r="F752" s="58"/>
@@ -12767,7 +12716,7 @@
       <c r="O752" s="58"/>
       <c r="P752" s="58"/>
     </row>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C753" s="58"/>
       <c r="E753" s="58"/>
       <c r="F753" s="58"/>
@@ -12782,7 +12731,7 @@
       <c r="O753" s="58"/>
       <c r="P753" s="58"/>
     </row>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C754" s="58"/>
       <c r="E754" s="58"/>
       <c r="F754" s="58"/>
@@ -12797,7 +12746,7 @@
       <c r="O754" s="58"/>
       <c r="P754" s="58"/>
     </row>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C755" s="58"/>
       <c r="E755" s="58"/>
       <c r="F755" s="58"/>
@@ -12812,7 +12761,7 @@
       <c r="O755" s="58"/>
       <c r="P755" s="58"/>
     </row>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C756" s="58"/>
       <c r="E756" s="58"/>
       <c r="F756" s="58"/>
@@ -12827,7 +12776,7 @@
       <c r="O756" s="58"/>
       <c r="P756" s="58"/>
     </row>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C757" s="58"/>
       <c r="E757" s="58"/>
       <c r="F757" s="58"/>
@@ -12842,7 +12791,7 @@
       <c r="O757" s="58"/>
       <c r="P757" s="58"/>
     </row>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C758" s="58"/>
       <c r="E758" s="58"/>
       <c r="F758" s="58"/>
@@ -12857,7 +12806,7 @@
       <c r="O758" s="58"/>
       <c r="P758" s="58"/>
     </row>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C759" s="58"/>
       <c r="E759" s="58"/>
       <c r="F759" s="58"/>
@@ -12872,7 +12821,7 @@
       <c r="O759" s="58"/>
       <c r="P759" s="58"/>
     </row>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C760" s="58"/>
       <c r="E760" s="58"/>
       <c r="F760" s="58"/>
@@ -12887,7 +12836,7 @@
       <c r="O760" s="58"/>
       <c r="P760" s="58"/>
     </row>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C761" s="58"/>
       <c r="E761" s="58"/>
       <c r="F761" s="58"/>
@@ -12902,7 +12851,7 @@
       <c r="O761" s="58"/>
       <c r="P761" s="58"/>
     </row>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C762" s="58"/>
       <c r="E762" s="58"/>
       <c r="F762" s="58"/>
@@ -12917,7 +12866,7 @@
       <c r="O762" s="58"/>
       <c r="P762" s="58"/>
     </row>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C763" s="58"/>
       <c r="E763" s="58"/>
       <c r="F763" s="58"/>
@@ -12932,7 +12881,7 @@
       <c r="O763" s="58"/>
       <c r="P763" s="58"/>
     </row>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C764" s="58"/>
       <c r="E764" s="58"/>
       <c r="F764" s="58"/>
@@ -12947,7 +12896,7 @@
       <c r="O764" s="58"/>
       <c r="P764" s="58"/>
     </row>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C765" s="58"/>
       <c r="E765" s="58"/>
       <c r="F765" s="58"/>
@@ -12962,7 +12911,7 @@
       <c r="O765" s="58"/>
       <c r="P765" s="58"/>
     </row>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C766" s="58"/>
       <c r="E766" s="58"/>
       <c r="F766" s="58"/>
@@ -12977,7 +12926,7 @@
       <c r="O766" s="58"/>
       <c r="P766" s="58"/>
     </row>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C767" s="58"/>
       <c r="E767" s="58"/>
       <c r="F767" s="58"/>
@@ -12992,7 +12941,7 @@
       <c r="O767" s="58"/>
       <c r="P767" s="58"/>
     </row>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C768" s="58"/>
       <c r="E768" s="58"/>
       <c r="F768" s="58"/>
@@ -13007,7 +12956,7 @@
       <c r="O768" s="58"/>
       <c r="P768" s="58"/>
     </row>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C769" s="58"/>
       <c r="E769" s="58"/>
       <c r="F769" s="58"/>
@@ -13022,7 +12971,7 @@
       <c r="O769" s="58"/>
       <c r="P769" s="58"/>
     </row>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C770" s="58"/>
       <c r="E770" s="58"/>
       <c r="F770" s="58"/>
@@ -13037,7 +12986,7 @@
       <c r="O770" s="58"/>
       <c r="P770" s="58"/>
     </row>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C771" s="58"/>
       <c r="E771" s="58"/>
       <c r="F771" s="58"/>
@@ -13052,7 +13001,7 @@
       <c r="O771" s="58"/>
       <c r="P771" s="58"/>
     </row>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C772" s="58"/>
       <c r="E772" s="58"/>
       <c r="F772" s="58"/>
@@ -13067,7 +13016,7 @@
       <c r="O772" s="58"/>
       <c r="P772" s="58"/>
     </row>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C773" s="58"/>
       <c r="E773" s="58"/>
       <c r="F773" s="58"/>
@@ -13082,7 +13031,7 @@
       <c r="O773" s="58"/>
       <c r="P773" s="58"/>
     </row>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C774" s="58"/>
       <c r="E774" s="58"/>
       <c r="F774" s="58"/>
@@ -13097,7 +13046,7 @@
       <c r="O774" s="58"/>
       <c r="P774" s="58"/>
     </row>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C775" s="58"/>
       <c r="E775" s="58"/>
       <c r="F775" s="58"/>
@@ -13112,7 +13061,7 @@
       <c r="O775" s="58"/>
       <c r="P775" s="58"/>
     </row>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C776" s="58"/>
       <c r="E776" s="58"/>
       <c r="F776" s="58"/>
@@ -13127,7 +13076,7 @@
       <c r="O776" s="58"/>
       <c r="P776" s="58"/>
     </row>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C777" s="58"/>
       <c r="E777" s="58"/>
       <c r="F777" s="58"/>
@@ -13142,7 +13091,7 @@
       <c r="O777" s="58"/>
       <c r="P777" s="58"/>
     </row>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C778" s="58"/>
       <c r="E778" s="58"/>
       <c r="F778" s="58"/>
@@ -13157,7 +13106,7 @@
       <c r="O778" s="58"/>
       <c r="P778" s="58"/>
     </row>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C779" s="58"/>
       <c r="E779" s="58"/>
       <c r="F779" s="58"/>
@@ -13172,7 +13121,7 @@
       <c r="O779" s="58"/>
       <c r="P779" s="58"/>
     </row>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C780" s="58"/>
       <c r="E780" s="58"/>
       <c r="F780" s="58"/>
@@ -13187,7 +13136,7 @@
       <c r="O780" s="58"/>
       <c r="P780" s="58"/>
     </row>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C781" s="58"/>
       <c r="E781" s="58"/>
       <c r="F781" s="58"/>
@@ -13202,7 +13151,7 @@
       <c r="O781" s="58"/>
       <c r="P781" s="58"/>
     </row>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C782" s="58"/>
       <c r="E782" s="58"/>
       <c r="F782" s="58"/>
@@ -13217,7 +13166,7 @@
       <c r="O782" s="58"/>
       <c r="P782" s="58"/>
     </row>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C783" s="58"/>
       <c r="E783" s="58"/>
       <c r="F783" s="58"/>
@@ -13232,7 +13181,7 @@
       <c r="O783" s="58"/>
       <c r="P783" s="58"/>
     </row>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C784" s="58"/>
       <c r="E784" s="58"/>
       <c r="F784" s="58"/>
@@ -13247,7 +13196,7 @@
       <c r="O784" s="58"/>
       <c r="P784" s="58"/>
     </row>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C785" s="58"/>
       <c r="E785" s="58"/>
       <c r="F785" s="58"/>
@@ -13262,7 +13211,7 @@
       <c r="O785" s="58"/>
       <c r="P785" s="58"/>
     </row>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C786" s="58"/>
       <c r="E786" s="58"/>
       <c r="F786" s="58"/>
@@ -13277,7 +13226,7 @@
       <c r="O786" s="58"/>
       <c r="P786" s="58"/>
     </row>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C787" s="58"/>
       <c r="E787" s="58"/>
       <c r="F787" s="58"/>
@@ -13292,7 +13241,7 @@
       <c r="O787" s="58"/>
       <c r="P787" s="58"/>
     </row>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C788" s="58"/>
       <c r="E788" s="58"/>
       <c r="F788" s="58"/>
@@ -13307,7 +13256,7 @@
       <c r="O788" s="58"/>
       <c r="P788" s="58"/>
     </row>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C789" s="58"/>
       <c r="E789" s="58"/>
       <c r="F789" s="58"/>
@@ -13322,7 +13271,7 @@
       <c r="O789" s="58"/>
       <c r="P789" s="58"/>
     </row>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C790" s="58"/>
       <c r="E790" s="58"/>
       <c r="F790" s="58"/>
@@ -13337,7 +13286,7 @@
       <c r="O790" s="58"/>
       <c r="P790" s="58"/>
     </row>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C791" s="58"/>
       <c r="E791" s="58"/>
       <c r="F791" s="58"/>
@@ -13352,7 +13301,7 @@
       <c r="O791" s="58"/>
       <c r="P791" s="58"/>
     </row>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C792" s="58"/>
       <c r="E792" s="58"/>
       <c r="F792" s="58"/>
@@ -13367,7 +13316,7 @@
       <c r="O792" s="58"/>
       <c r="P792" s="58"/>
     </row>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C793" s="58"/>
       <c r="E793" s="58"/>
       <c r="F793" s="58"/>
@@ -13382,7 +13331,7 @@
       <c r="O793" s="58"/>
       <c r="P793" s="58"/>
     </row>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C794" s="58"/>
       <c r="E794" s="58"/>
       <c r="F794" s="58"/>
@@ -13397,7 +13346,7 @@
       <c r="O794" s="58"/>
       <c r="P794" s="58"/>
     </row>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C795" s="58"/>
       <c r="E795" s="58"/>
       <c r="F795" s="58"/>
@@ -13412,7 +13361,7 @@
       <c r="O795" s="58"/>
       <c r="P795" s="58"/>
     </row>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C796" s="58"/>
       <c r="E796" s="58"/>
       <c r="F796" s="58"/>
@@ -13427,7 +13376,7 @@
       <c r="O796" s="58"/>
       <c r="P796" s="58"/>
     </row>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C797" s="58"/>
       <c r="E797" s="58"/>
       <c r="F797" s="58"/>
@@ -13442,7 +13391,7 @@
       <c r="O797" s="58"/>
       <c r="P797" s="58"/>
     </row>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C798" s="58"/>
       <c r="E798" s="58"/>
       <c r="F798" s="58"/>
@@ -13457,7 +13406,7 @@
       <c r="O798" s="58"/>
       <c r="P798" s="58"/>
     </row>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C799" s="58"/>
       <c r="E799" s="58"/>
       <c r="F799" s="58"/>
@@ -13472,7 +13421,7 @@
       <c r="O799" s="58"/>
       <c r="P799" s="58"/>
     </row>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C800" s="58"/>
       <c r="E800" s="58"/>
       <c r="F800" s="58"/>
@@ -13487,7 +13436,7 @@
       <c r="O800" s="58"/>
       <c r="P800" s="58"/>
     </row>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C801" s="58"/>
       <c r="E801" s="58"/>
       <c r="F801" s="58"/>
@@ -13502,7 +13451,7 @@
       <c r="O801" s="58"/>
       <c r="P801" s="58"/>
     </row>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C802" s="58"/>
       <c r="E802" s="58"/>
       <c r="F802" s="58"/>
@@ -13517,7 +13466,7 @@
       <c r="O802" s="58"/>
       <c r="P802" s="58"/>
     </row>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C803" s="58"/>
       <c r="E803" s="58"/>
       <c r="F803" s="58"/>
@@ -13532,7 +13481,7 @@
       <c r="O803" s="58"/>
       <c r="P803" s="58"/>
     </row>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C804" s="58"/>
       <c r="E804" s="58"/>
       <c r="F804" s="58"/>
@@ -13547,7 +13496,7 @@
       <c r="O804" s="58"/>
       <c r="P804" s="58"/>
     </row>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C805" s="58"/>
       <c r="E805" s="58"/>
       <c r="F805" s="58"/>
@@ -13562,7 +13511,7 @@
       <c r="O805" s="58"/>
       <c r="P805" s="58"/>
     </row>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C806" s="58"/>
       <c r="E806" s="58"/>
       <c r="F806" s="58"/>
@@ -13577,7 +13526,7 @@
       <c r="O806" s="58"/>
       <c r="P806" s="58"/>
     </row>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C807" s="58"/>
       <c r="E807" s="58"/>
       <c r="F807" s="58"/>
@@ -13592,7 +13541,7 @@
       <c r="O807" s="58"/>
       <c r="P807" s="58"/>
     </row>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C808" s="58"/>
       <c r="E808" s="58"/>
       <c r="F808" s="58"/>
@@ -13607,7 +13556,7 @@
       <c r="O808" s="58"/>
       <c r="P808" s="58"/>
     </row>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C809" s="58"/>
       <c r="E809" s="58"/>
       <c r="F809" s="58"/>
@@ -13622,7 +13571,7 @@
       <c r="O809" s="58"/>
       <c r="P809" s="58"/>
     </row>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C810" s="58"/>
       <c r="E810" s="58"/>
       <c r="F810" s="58"/>
@@ -13637,7 +13586,7 @@
       <c r="O810" s="58"/>
       <c r="P810" s="58"/>
     </row>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C811" s="58"/>
       <c r="E811" s="58"/>
       <c r="F811" s="58"/>
@@ -13652,7 +13601,7 @@
       <c r="O811" s="58"/>
       <c r="P811" s="58"/>
     </row>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C812" s="58"/>
       <c r="E812" s="58"/>
       <c r="F812" s="58"/>
@@ -13667,7 +13616,7 @@
       <c r="O812" s="58"/>
       <c r="P812" s="58"/>
     </row>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C813" s="58"/>
       <c r="E813" s="58"/>
       <c r="F813" s="58"/>
@@ -13682,7 +13631,7 @@
       <c r="O813" s="58"/>
       <c r="P813" s="58"/>
     </row>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C814" s="58"/>
       <c r="E814" s="58"/>
       <c r="F814" s="58"/>
@@ -13697,7 +13646,7 @@
       <c r="O814" s="58"/>
       <c r="P814" s="58"/>
     </row>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C815" s="58"/>
       <c r="E815" s="58"/>
       <c r="F815" s="58"/>
@@ -13712,7 +13661,7 @@
       <c r="O815" s="58"/>
       <c r="P815" s="58"/>
     </row>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C816" s="58"/>
       <c r="E816" s="58"/>
       <c r="F816" s="58"/>
@@ -13727,7 +13676,7 @@
       <c r="O816" s="58"/>
       <c r="P816" s="58"/>
     </row>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C817" s="58"/>
       <c r="E817" s="58"/>
       <c r="F817" s="58"/>
@@ -13742,7 +13691,7 @@
       <c r="O817" s="58"/>
       <c r="P817" s="58"/>
     </row>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C818" s="58"/>
       <c r="E818" s="58"/>
       <c r="F818" s="58"/>
@@ -13757,7 +13706,7 @@
       <c r="O818" s="58"/>
       <c r="P818" s="58"/>
     </row>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C819" s="58"/>
       <c r="E819" s="58"/>
       <c r="F819" s="58"/>
@@ -13772,7 +13721,7 @@
       <c r="O819" s="58"/>
       <c r="P819" s="58"/>
     </row>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C820" s="58"/>
       <c r="E820" s="58"/>
       <c r="F820" s="58"/>
@@ -13787,7 +13736,7 @@
       <c r="O820" s="58"/>
       <c r="P820" s="58"/>
     </row>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C821" s="58"/>
       <c r="E821" s="58"/>
       <c r="F821" s="58"/>
@@ -13802,7 +13751,7 @@
       <c r="O821" s="58"/>
       <c r="P821" s="58"/>
     </row>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C822" s="58"/>
       <c r="E822" s="58"/>
       <c r="F822" s="58"/>
@@ -13817,7 +13766,7 @@
       <c r="O822" s="58"/>
       <c r="P822" s="58"/>
     </row>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C823" s="58"/>
       <c r="E823" s="58"/>
       <c r="F823" s="58"/>
@@ -13832,7 +13781,7 @@
       <c r="O823" s="58"/>
       <c r="P823" s="58"/>
     </row>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C824" s="58"/>
       <c r="E824" s="58"/>
       <c r="F824" s="58"/>
@@ -13847,7 +13796,7 @@
       <c r="O824" s="58"/>
       <c r="P824" s="58"/>
     </row>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C825" s="58"/>
       <c r="E825" s="58"/>
       <c r="F825" s="58"/>
@@ -13862,7 +13811,7 @@
       <c r="O825" s="58"/>
       <c r="P825" s="58"/>
     </row>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C826" s="58"/>
       <c r="E826" s="58"/>
       <c r="F826" s="58"/>
@@ -13877,7 +13826,7 @@
       <c r="O826" s="58"/>
       <c r="P826" s="58"/>
     </row>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C827" s="58"/>
       <c r="E827" s="58"/>
       <c r="F827" s="58"/>
@@ -13892,7 +13841,7 @@
       <c r="O827" s="58"/>
       <c r="P827" s="58"/>
     </row>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C828" s="58"/>
       <c r="E828" s="58"/>
       <c r="F828" s="58"/>
@@ -13907,7 +13856,7 @@
       <c r="O828" s="58"/>
       <c r="P828" s="58"/>
     </row>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C829" s="58"/>
       <c r="E829" s="58"/>
       <c r="F829" s="58"/>
@@ -13922,7 +13871,7 @@
       <c r="O829" s="58"/>
       <c r="P829" s="58"/>
     </row>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C830" s="58"/>
       <c r="E830" s="58"/>
       <c r="F830" s="58"/>
@@ -13937,7 +13886,7 @@
       <c r="O830" s="58"/>
       <c r="P830" s="58"/>
     </row>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C831" s="58"/>
       <c r="E831" s="58"/>
       <c r="F831" s="58"/>
@@ -13952,7 +13901,7 @@
       <c r="O831" s="58"/>
       <c r="P831" s="58"/>
     </row>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C832" s="58"/>
       <c r="E832" s="58"/>
       <c r="F832" s="58"/>
@@ -13967,7 +13916,7 @@
       <c r="O832" s="58"/>
       <c r="P832" s="58"/>
     </row>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C833" s="58"/>
       <c r="E833" s="58"/>
       <c r="F833" s="58"/>
@@ -13982,7 +13931,7 @@
       <c r="O833" s="58"/>
       <c r="P833" s="58"/>
     </row>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C834" s="58"/>
       <c r="E834" s="58"/>
       <c r="F834" s="58"/>
@@ -13997,7 +13946,7 @@
       <c r="O834" s="58"/>
       <c r="P834" s="58"/>
     </row>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C835" s="58"/>
       <c r="E835" s="58"/>
       <c r="F835" s="58"/>
@@ -14012,7 +13961,7 @@
       <c r="O835" s="58"/>
       <c r="P835" s="58"/>
     </row>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C836" s="58"/>
       <c r="E836" s="58"/>
       <c r="F836" s="58"/>
@@ -14027,7 +13976,7 @@
       <c r="O836" s="58"/>
       <c r="P836" s="58"/>
     </row>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C837" s="58"/>
       <c r="E837" s="58"/>
       <c r="F837" s="58"/>
@@ -14042,7 +13991,7 @@
       <c r="O837" s="58"/>
       <c r="P837" s="58"/>
     </row>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C838" s="58"/>
       <c r="E838" s="58"/>
       <c r="F838" s="58"/>
@@ -14057,7 +14006,7 @@
       <c r="O838" s="58"/>
       <c r="P838" s="58"/>
     </row>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C839" s="58"/>
       <c r="E839" s="58"/>
       <c r="F839" s="58"/>
@@ -14072,7 +14021,7 @@
       <c r="O839" s="58"/>
       <c r="P839" s="58"/>
     </row>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="58"/>
       <c r="E840" s="58"/>
       <c r="F840" s="58"/>
@@ -14087,7 +14036,7 @@
       <c r="O840" s="58"/>
       <c r="P840" s="58"/>
     </row>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C841" s="58"/>
       <c r="E841" s="58"/>
       <c r="F841" s="58"/>
@@ -14102,7 +14051,7 @@
       <c r="O841" s="58"/>
       <c r="P841" s="58"/>
     </row>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C842" s="58"/>
       <c r="E842" s="58"/>
       <c r="F842" s="58"/>
@@ -14117,7 +14066,7 @@
       <c r="O842" s="58"/>
       <c r="P842" s="58"/>
     </row>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="58"/>
       <c r="E843" s="58"/>
       <c r="F843" s="58"/>
@@ -14132,7 +14081,7 @@
       <c r="O843" s="58"/>
       <c r="P843" s="58"/>
     </row>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C844" s="58"/>
       <c r="E844" s="58"/>
       <c r="F844" s="58"/>
@@ -14147,7 +14096,7 @@
       <c r="O844" s="58"/>
       <c r="P844" s="58"/>
     </row>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C845" s="58"/>
       <c r="E845" s="58"/>
       <c r="F845" s="58"/>
@@ -14162,7 +14111,7 @@
       <c r="O845" s="58"/>
       <c r="P845" s="58"/>
     </row>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="58"/>
       <c r="E846" s="58"/>
       <c r="F846" s="58"/>
@@ -14177,7 +14126,7 @@
       <c r="O846" s="58"/>
       <c r="P846" s="58"/>
     </row>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C847" s="58"/>
       <c r="E847" s="58"/>
       <c r="F847" s="58"/>
@@ -14192,7 +14141,7 @@
       <c r="O847" s="58"/>
       <c r="P847" s="58"/>
     </row>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C848" s="58"/>
       <c r="E848" s="58"/>
       <c r="F848" s="58"/>
@@ -14207,7 +14156,7 @@
       <c r="O848" s="58"/>
       <c r="P848" s="58"/>
     </row>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C849" s="58"/>
       <c r="E849" s="58"/>
       <c r="F849" s="58"/>
@@ -14222,7 +14171,7 @@
       <c r="O849" s="58"/>
       <c r="P849" s="58"/>
     </row>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C850" s="58"/>
       <c r="E850" s="58"/>
       <c r="F850" s="58"/>
@@ -14237,7 +14186,7 @@
       <c r="O850" s="58"/>
       <c r="P850" s="58"/>
     </row>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C851" s="58"/>
       <c r="E851" s="58"/>
       <c r="F851" s="58"/>
@@ -14252,7 +14201,7 @@
       <c r="O851" s="58"/>
       <c r="P851" s="58"/>
     </row>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C852" s="58"/>
       <c r="E852" s="58"/>
       <c r="F852" s="58"/>
@@ -14267,7 +14216,7 @@
       <c r="O852" s="58"/>
       <c r="P852" s="58"/>
     </row>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C853" s="58"/>
       <c r="E853" s="58"/>
       <c r="F853" s="58"/>
@@ -14282,7 +14231,7 @@
       <c r="O853" s="58"/>
       <c r="P853" s="58"/>
     </row>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C854" s="58"/>
       <c r="E854" s="58"/>
       <c r="F854" s="58"/>
@@ -14297,7 +14246,7 @@
       <c r="O854" s="58"/>
       <c r="P854" s="58"/>
     </row>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C855" s="58"/>
       <c r="E855" s="58"/>
       <c r="F855" s="58"/>
@@ -14312,7 +14261,7 @@
       <c r="O855" s="58"/>
       <c r="P855" s="58"/>
     </row>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C856" s="58"/>
       <c r="E856" s="58"/>
       <c r="F856" s="58"/>
@@ -14327,7 +14276,7 @@
       <c r="O856" s="58"/>
       <c r="P856" s="58"/>
     </row>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C857" s="58"/>
       <c r="E857" s="58"/>
       <c r="F857" s="58"/>
@@ -14342,7 +14291,7 @@
       <c r="O857" s="58"/>
       <c r="P857" s="58"/>
     </row>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C858" s="58"/>
       <c r="E858" s="58"/>
       <c r="F858" s="58"/>
@@ -14357,7 +14306,7 @@
       <c r="O858" s="58"/>
       <c r="P858" s="58"/>
     </row>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C859" s="58"/>
       <c r="E859" s="58"/>
       <c r="F859" s="58"/>
@@ -14372,7 +14321,7 @@
       <c r="O859" s="58"/>
       <c r="P859" s="58"/>
     </row>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C860" s="58"/>
       <c r="E860" s="58"/>
       <c r="F860" s="58"/>
@@ -14387,7 +14336,7 @@
       <c r="O860" s="58"/>
       <c r="P860" s="58"/>
     </row>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C861" s="58"/>
       <c r="E861" s="58"/>
       <c r="F861" s="58"/>
@@ -14402,7 +14351,7 @@
       <c r="O861" s="58"/>
       <c r="P861" s="58"/>
     </row>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C862" s="58"/>
       <c r="E862" s="58"/>
       <c r="F862" s="58"/>
@@ -14417,7 +14366,7 @@
       <c r="O862" s="58"/>
       <c r="P862" s="58"/>
     </row>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C863" s="58"/>
       <c r="E863" s="58"/>
       <c r="F863" s="58"/>
@@ -14432,7 +14381,7 @@
       <c r="O863" s="58"/>
       <c r="P863" s="58"/>
     </row>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C864" s="58"/>
       <c r="E864" s="58"/>
       <c r="F864" s="58"/>
@@ -14447,7 +14396,7 @@
       <c r="O864" s="58"/>
       <c r="P864" s="58"/>
     </row>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C865" s="58"/>
       <c r="E865" s="58"/>
       <c r="F865" s="58"/>
@@ -14462,7 +14411,7 @@
       <c r="O865" s="58"/>
       <c r="P865" s="58"/>
     </row>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C866" s="58"/>
       <c r="E866" s="58"/>
       <c r="F866" s="58"/>
@@ -14477,7 +14426,7 @@
       <c r="O866" s="58"/>
       <c r="P866" s="58"/>
     </row>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C867" s="58"/>
       <c r="E867" s="58"/>
       <c r="F867" s="58"/>
@@ -14492,7 +14441,7 @@
       <c r="O867" s="58"/>
       <c r="P867" s="58"/>
     </row>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C868" s="58"/>
       <c r="E868" s="58"/>
       <c r="F868" s="58"/>
@@ -14507,7 +14456,7 @@
       <c r="O868" s="58"/>
       <c r="P868" s="58"/>
     </row>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C869" s="58"/>
       <c r="E869" s="58"/>
       <c r="F869" s="58"/>
@@ -14522,7 +14471,7 @@
       <c r="O869" s="58"/>
       <c r="P869" s="58"/>
     </row>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C870" s="58"/>
       <c r="E870" s="58"/>
       <c r="F870" s="58"/>
@@ -14537,7 +14486,7 @@
       <c r="O870" s="58"/>
       <c r="P870" s="58"/>
     </row>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C871" s="58"/>
       <c r="E871" s="58"/>
       <c r="F871" s="58"/>
@@ -14552,7 +14501,7 @@
       <c r="O871" s="58"/>
       <c r="P871" s="58"/>
     </row>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C872" s="58"/>
       <c r="E872" s="58"/>
       <c r="F872" s="58"/>
@@ -14567,7 +14516,7 @@
       <c r="O872" s="58"/>
       <c r="P872" s="58"/>
     </row>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C873" s="58"/>
       <c r="E873" s="58"/>
       <c r="F873" s="58"/>
@@ -14582,7 +14531,7 @@
       <c r="O873" s="58"/>
       <c r="P873" s="58"/>
     </row>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C874" s="58"/>
       <c r="E874" s="58"/>
       <c r="F874" s="58"/>
@@ -14597,7 +14546,7 @@
       <c r="O874" s="58"/>
       <c r="P874" s="58"/>
     </row>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C875" s="58"/>
       <c r="E875" s="58"/>
       <c r="F875" s="58"/>
@@ -14612,7 +14561,7 @@
       <c r="O875" s="58"/>
       <c r="P875" s="58"/>
     </row>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C876" s="58"/>
       <c r="E876" s="58"/>
       <c r="F876" s="58"/>
@@ -14627,7 +14576,7 @@
       <c r="O876" s="58"/>
       <c r="P876" s="58"/>
     </row>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C877" s="58"/>
       <c r="E877" s="58"/>
       <c r="F877" s="58"/>
@@ -14642,7 +14591,7 @@
       <c r="O877" s="58"/>
       <c r="P877" s="58"/>
     </row>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C878" s="58"/>
       <c r="E878" s="58"/>
       <c r="F878" s="58"/>
@@ -14657,7 +14606,7 @@
       <c r="O878" s="58"/>
       <c r="P878" s="58"/>
     </row>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C879" s="58"/>
       <c r="E879" s="58"/>
       <c r="F879" s="58"/>
@@ -14672,7 +14621,7 @@
       <c r="O879" s="58"/>
       <c r="P879" s="58"/>
     </row>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C880" s="58"/>
       <c r="E880" s="58"/>
       <c r="F880" s="58"/>
@@ -14687,7 +14636,7 @@
       <c r="O880" s="58"/>
       <c r="P880" s="58"/>
     </row>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C881" s="58"/>
       <c r="E881" s="58"/>
       <c r="F881" s="58"/>
@@ -14702,7 +14651,7 @@
       <c r="O881" s="58"/>
       <c r="P881" s="58"/>
     </row>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C882" s="58"/>
       <c r="E882" s="58"/>
       <c r="F882" s="58"/>
@@ -14717,7 +14666,7 @@
       <c r="O882" s="58"/>
       <c r="P882" s="58"/>
     </row>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C883" s="58"/>
       <c r="E883" s="58"/>
       <c r="F883" s="58"/>
@@ -14732,7 +14681,7 @@
       <c r="O883" s="58"/>
       <c r="P883" s="58"/>
     </row>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C884" s="58"/>
       <c r="E884" s="58"/>
       <c r="F884" s="58"/>
@@ -14747,7 +14696,7 @@
       <c r="O884" s="58"/>
       <c r="P884" s="58"/>
     </row>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C885" s="58"/>
       <c r="E885" s="58"/>
       <c r="F885" s="58"/>
@@ -14762,7 +14711,7 @@
       <c r="O885" s="58"/>
       <c r="P885" s="58"/>
     </row>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C886" s="58"/>
       <c r="E886" s="58"/>
       <c r="F886" s="58"/>
@@ -14777,7 +14726,7 @@
       <c r="O886" s="58"/>
       <c r="P886" s="58"/>
     </row>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C887" s="58"/>
       <c r="E887" s="58"/>
       <c r="F887" s="58"/>
@@ -14792,7 +14741,7 @@
       <c r="O887" s="58"/>
       <c r="P887" s="58"/>
     </row>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C888" s="58"/>
       <c r="E888" s="58"/>
       <c r="F888" s="58"/>
@@ -14807,7 +14756,7 @@
       <c r="O888" s="58"/>
       <c r="P888" s="58"/>
     </row>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C889" s="58"/>
       <c r="E889" s="58"/>
       <c r="F889" s="58"/>
@@ -14822,7 +14771,7 @@
       <c r="O889" s="58"/>
       <c r="P889" s="58"/>
     </row>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C890" s="58"/>
       <c r="E890" s="58"/>
       <c r="F890" s="58"/>
@@ -14837,7 +14786,7 @@
       <c r="O890" s="58"/>
       <c r="P890" s="58"/>
     </row>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C891" s="58"/>
       <c r="E891" s="58"/>
       <c r="F891" s="58"/>
@@ -14852,7 +14801,7 @@
       <c r="O891" s="58"/>
       <c r="P891" s="58"/>
     </row>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C892" s="58"/>
       <c r="E892" s="58"/>
       <c r="F892" s="58"/>
@@ -14867,7 +14816,7 @@
       <c r="O892" s="58"/>
       <c r="P892" s="58"/>
     </row>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C893" s="58"/>
       <c r="E893" s="58"/>
       <c r="F893" s="58"/>
@@ -14882,7 +14831,7 @@
       <c r="O893" s="58"/>
       <c r="P893" s="58"/>
     </row>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C894" s="58"/>
       <c r="E894" s="58"/>
       <c r="F894" s="58"/>
@@ -14897,7 +14846,7 @@
       <c r="O894" s="58"/>
       <c r="P894" s="58"/>
     </row>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C895" s="58"/>
       <c r="E895" s="58"/>
       <c r="F895" s="58"/>
@@ -14912,7 +14861,7 @@
       <c r="O895" s="58"/>
       <c r="P895" s="58"/>
     </row>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C896" s="58"/>
       <c r="E896" s="58"/>
       <c r="F896" s="58"/>
@@ -14927,7 +14876,7 @@
       <c r="O896" s="58"/>
       <c r="P896" s="58"/>
     </row>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C897" s="58"/>
       <c r="E897" s="58"/>
       <c r="F897" s="58"/>
@@ -14942,7 +14891,7 @@
       <c r="O897" s="58"/>
       <c r="P897" s="58"/>
     </row>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C898" s="58"/>
       <c r="E898" s="58"/>
       <c r="F898" s="58"/>
@@ -14957,7 +14906,7 @@
       <c r="O898" s="58"/>
       <c r="P898" s="58"/>
     </row>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C899" s="58"/>
       <c r="E899" s="58"/>
       <c r="F899" s="58"/>
@@ -14972,7 +14921,7 @@
       <c r="O899" s="58"/>
       <c r="P899" s="58"/>
     </row>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C900" s="58"/>
       <c r="E900" s="58"/>
       <c r="F900" s="58"/>
@@ -14987,7 +14936,7 @@
       <c r="O900" s="58"/>
       <c r="P900" s="58"/>
     </row>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C901" s="58"/>
       <c r="E901" s="58"/>
       <c r="F901" s="58"/>
@@ -15002,7 +14951,7 @@
       <c r="O901" s="58"/>
       <c r="P901" s="58"/>
     </row>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C902" s="58"/>
       <c r="E902" s="58"/>
       <c r="F902" s="58"/>
@@ -15017,7 +14966,7 @@
       <c r="O902" s="58"/>
       <c r="P902" s="58"/>
     </row>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C903" s="58"/>
       <c r="E903" s="58"/>
       <c r="F903" s="58"/>
@@ -15032,7 +14981,7 @@
       <c r="O903" s="58"/>
       <c r="P903" s="58"/>
     </row>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C904" s="58"/>
       <c r="E904" s="58"/>
       <c r="F904" s="58"/>
@@ -15047,7 +14996,7 @@
       <c r="O904" s="58"/>
       <c r="P904" s="58"/>
     </row>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C905" s="58"/>
       <c r="E905" s="58"/>
       <c r="F905" s="58"/>
@@ -15062,7 +15011,7 @@
       <c r="O905" s="58"/>
       <c r="P905" s="58"/>
     </row>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C906" s="58"/>
       <c r="E906" s="58"/>
       <c r="F906" s="58"/>
@@ -15077,7 +15026,7 @@
       <c r="O906" s="58"/>
       <c r="P906" s="58"/>
     </row>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C907" s="58"/>
       <c r="E907" s="58"/>
       <c r="F907" s="58"/>
@@ -15092,7 +15041,7 @@
       <c r="O907" s="58"/>
       <c r="P907" s="58"/>
     </row>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C908" s="58"/>
       <c r="E908" s="58"/>
       <c r="F908" s="58"/>
@@ -15107,7 +15056,7 @@
       <c r="O908" s="58"/>
       <c r="P908" s="58"/>
     </row>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C909" s="58"/>
       <c r="E909" s="58"/>
       <c r="F909" s="58"/>
@@ -15122,7 +15071,7 @@
       <c r="O909" s="58"/>
       <c r="P909" s="58"/>
     </row>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C910" s="58"/>
       <c r="E910" s="58"/>
       <c r="F910" s="58"/>
@@ -15137,7 +15086,7 @@
       <c r="O910" s="58"/>
       <c r="P910" s="58"/>
     </row>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C911" s="58"/>
       <c r="E911" s="58"/>
       <c r="F911" s="58"/>
@@ -15152,7 +15101,7 @@
       <c r="O911" s="58"/>
       <c r="P911" s="58"/>
     </row>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C912" s="58"/>
       <c r="E912" s="58"/>
       <c r="F912" s="58"/>
@@ -15167,7 +15116,7 @@
       <c r="O912" s="58"/>
       <c r="P912" s="58"/>
     </row>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C913" s="58"/>
       <c r="E913" s="58"/>
       <c r="F913" s="58"/>
@@ -15182,7 +15131,7 @@
       <c r="O913" s="58"/>
       <c r="P913" s="58"/>
     </row>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C914" s="58"/>
       <c r="E914" s="58"/>
       <c r="F914" s="58"/>
@@ -15197,7 +15146,7 @@
       <c r="O914" s="58"/>
       <c r="P914" s="58"/>
     </row>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C915" s="58"/>
       <c r="E915" s="58"/>
       <c r="F915" s="58"/>
@@ -15212,7 +15161,7 @@
       <c r="O915" s="58"/>
       <c r="P915" s="58"/>
     </row>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C916" s="58"/>
       <c r="E916" s="58"/>
       <c r="F916" s="58"/>
@@ -15227,7 +15176,7 @@
       <c r="O916" s="58"/>
       <c r="P916" s="58"/>
     </row>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C917" s="58"/>
       <c r="E917" s="58"/>
       <c r="F917" s="58"/>
@@ -15242,7 +15191,7 @@
       <c r="O917" s="58"/>
       <c r="P917" s="58"/>
     </row>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C918" s="58"/>
       <c r="E918" s="58"/>
       <c r="F918" s="58"/>
@@ -15257,7 +15206,7 @@
       <c r="O918" s="58"/>
       <c r="P918" s="58"/>
     </row>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C919" s="58"/>
       <c r="E919" s="58"/>
       <c r="F919" s="58"/>
@@ -15272,7 +15221,7 @@
       <c r="O919" s="58"/>
       <c r="P919" s="58"/>
     </row>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C920" s="58"/>
       <c r="E920" s="58"/>
       <c r="F920" s="58"/>
@@ -15287,7 +15236,7 @@
       <c r="O920" s="58"/>
       <c r="P920" s="58"/>
     </row>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C921" s="58"/>
       <c r="E921" s="58"/>
       <c r="F921" s="58"/>
@@ -15302,7 +15251,7 @@
       <c r="O921" s="58"/>
       <c r="P921" s="58"/>
     </row>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C922" s="58"/>
       <c r="E922" s="58"/>
       <c r="F922" s="58"/>
@@ -15317,7 +15266,7 @@
       <c r="O922" s="58"/>
       <c r="P922" s="58"/>
     </row>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C923" s="58"/>
       <c r="E923" s="58"/>
       <c r="F923" s="58"/>
@@ -15332,7 +15281,7 @@
       <c r="O923" s="58"/>
       <c r="P923" s="58"/>
     </row>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C924" s="58"/>
       <c r="E924" s="58"/>
       <c r="F924" s="58"/>
@@ -15347,7 +15296,7 @@
       <c r="O924" s="58"/>
       <c r="P924" s="58"/>
     </row>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C925" s="58"/>
       <c r="E925" s="58"/>
       <c r="F925" s="58"/>
@@ -15362,7 +15311,7 @@
       <c r="O925" s="58"/>
       <c r="P925" s="58"/>
     </row>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C926" s="58"/>
       <c r="E926" s="58"/>
       <c r="F926" s="58"/>
@@ -15377,7 +15326,7 @@
       <c r="O926" s="58"/>
       <c r="P926" s="58"/>
     </row>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C927" s="58"/>
       <c r="E927" s="58"/>
       <c r="F927" s="58"/>
@@ -15392,7 +15341,7 @@
       <c r="O927" s="58"/>
       <c r="P927" s="58"/>
     </row>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C928" s="58"/>
       <c r="E928" s="58"/>
       <c r="F928" s="58"/>
@@ -15407,7 +15356,7 @@
       <c r="O928" s="58"/>
       <c r="P928" s="58"/>
     </row>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C929" s="58"/>
       <c r="E929" s="58"/>
       <c r="F929" s="58"/>
@@ -15422,7 +15371,7 @@
       <c r="O929" s="58"/>
       <c r="P929" s="58"/>
     </row>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C930" s="58"/>
       <c r="E930" s="58"/>
       <c r="F930" s="58"/>
@@ -15437,7 +15386,7 @@
       <c r="O930" s="58"/>
       <c r="P930" s="58"/>
     </row>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C931" s="58"/>
       <c r="E931" s="58"/>
       <c r="F931" s="58"/>
@@ -15452,7 +15401,7 @@
       <c r="O931" s="58"/>
       <c r="P931" s="58"/>
     </row>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C932" s="58"/>
       <c r="E932" s="58"/>
       <c r="F932" s="58"/>
@@ -15467,7 +15416,7 @@
       <c r="O932" s="58"/>
       <c r="P932" s="58"/>
     </row>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C933" s="58"/>
       <c r="E933" s="58"/>
       <c r="F933" s="58"/>
@@ -15482,7 +15431,7 @@
       <c r="O933" s="58"/>
       <c r="P933" s="58"/>
     </row>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C934" s="58"/>
       <c r="E934" s="58"/>
       <c r="F934" s="58"/>
@@ -15497,7 +15446,7 @@
       <c r="O934" s="58"/>
       <c r="P934" s="58"/>
     </row>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C935" s="58"/>
       <c r="E935" s="58"/>
       <c r="F935" s="58"/>
@@ -15512,7 +15461,7 @@
       <c r="O935" s="58"/>
       <c r="P935" s="58"/>
     </row>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C936" s="58"/>
       <c r="E936" s="58"/>
       <c r="F936" s="58"/>
@@ -15527,7 +15476,7 @@
       <c r="O936" s="58"/>
       <c r="P936" s="58"/>
     </row>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C937" s="58"/>
       <c r="E937" s="58"/>
       <c r="F937" s="58"/>
@@ -15542,7 +15491,7 @@
       <c r="O937" s="58"/>
       <c r="P937" s="58"/>
     </row>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C938" s="58"/>
       <c r="E938" s="58"/>
       <c r="F938" s="58"/>
@@ -15557,7 +15506,7 @@
       <c r="O938" s="58"/>
       <c r="P938" s="58"/>
     </row>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C939" s="58"/>
       <c r="E939" s="58"/>
       <c r="F939" s="58"/>
@@ -15572,7 +15521,7 @@
       <c r="O939" s="58"/>
       <c r="P939" s="58"/>
     </row>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C940" s="58"/>
       <c r="E940" s="58"/>
       <c r="F940" s="58"/>
@@ -15587,7 +15536,7 @@
       <c r="O940" s="58"/>
       <c r="P940" s="58"/>
     </row>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C941" s="58"/>
       <c r="E941" s="58"/>
       <c r="F941" s="58"/>
@@ -15602,7 +15551,7 @@
       <c r="O941" s="58"/>
       <c r="P941" s="58"/>
     </row>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C942" s="58"/>
       <c r="E942" s="58"/>
       <c r="F942" s="58"/>
@@ -15617,7 +15566,7 @@
       <c r="O942" s="58"/>
       <c r="P942" s="58"/>
     </row>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="58"/>
       <c r="E943" s="58"/>
       <c r="F943" s="58"/>
@@ -15632,7 +15581,7 @@
       <c r="O943" s="58"/>
       <c r="P943" s="58"/>
     </row>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C944" s="58"/>
       <c r="E944" s="58"/>
       <c r="F944" s="58"/>
@@ -15647,7 +15596,7 @@
       <c r="O944" s="58"/>
       <c r="P944" s="58"/>
     </row>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C945" s="58"/>
       <c r="E945" s="58"/>
       <c r="F945" s="58"/>
@@ -15662,7 +15611,7 @@
       <c r="O945" s="58"/>
       <c r="P945" s="58"/>
     </row>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C946" s="58"/>
       <c r="E946" s="58"/>
       <c r="F946" s="58"/>
@@ -15677,7 +15626,7 @@
       <c r="O946" s="58"/>
       <c r="P946" s="58"/>
     </row>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C947" s="58"/>
       <c r="E947" s="58"/>
       <c r="F947" s="58"/>
@@ -15692,7 +15641,7 @@
       <c r="O947" s="58"/>
       <c r="P947" s="58"/>
     </row>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C948" s="58"/>
       <c r="E948" s="58"/>
       <c r="F948" s="58"/>
@@ -15707,7 +15656,7 @@
       <c r="O948" s="58"/>
       <c r="P948" s="58"/>
     </row>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C949" s="58"/>
       <c r="E949" s="58"/>
       <c r="F949" s="58"/>
@@ -15722,7 +15671,7 @@
       <c r="O949" s="58"/>
       <c r="P949" s="58"/>
     </row>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C950" s="58"/>
       <c r="E950" s="58"/>
       <c r="F950" s="58"/>
@@ -15737,7 +15686,7 @@
       <c r="O950" s="58"/>
       <c r="P950" s="58"/>
     </row>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C951" s="58"/>
       <c r="E951" s="58"/>
       <c r="F951" s="58"/>
@@ -15752,7 +15701,7 @@
       <c r="O951" s="58"/>
       <c r="P951" s="58"/>
     </row>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C952" s="58"/>
       <c r="E952" s="58"/>
       <c r="F952" s="58"/>
@@ -15767,7 +15716,7 @@
       <c r="O952" s="58"/>
       <c r="P952" s="58"/>
     </row>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C953" s="58"/>
       <c r="E953" s="58"/>
       <c r="F953" s="58"/>
@@ -15782,7 +15731,7 @@
       <c r="O953" s="58"/>
       <c r="P953" s="58"/>
     </row>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C954" s="58"/>
       <c r="E954" s="58"/>
       <c r="F954" s="58"/>
@@ -15797,7 +15746,7 @@
       <c r="O954" s="58"/>
       <c r="P954" s="58"/>
     </row>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C955" s="58"/>
       <c r="E955" s="58"/>
       <c r="F955" s="58"/>
@@ -15812,7 +15761,7 @@
       <c r="O955" s="58"/>
       <c r="P955" s="58"/>
     </row>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C956" s="58"/>
       <c r="E956" s="58"/>
       <c r="F956" s="58"/>
@@ -15827,7 +15776,7 @@
       <c r="O956" s="58"/>
       <c r="P956" s="58"/>
     </row>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C957" s="58"/>
       <c r="E957" s="58"/>
       <c r="F957" s="58"/>
@@ -15842,7 +15791,7 @@
       <c r="O957" s="58"/>
       <c r="P957" s="58"/>
     </row>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C958" s="58"/>
       <c r="E958" s="58"/>
       <c r="F958" s="58"/>
@@ -15857,7 +15806,7 @@
       <c r="O958" s="58"/>
       <c r="P958" s="58"/>
     </row>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C959" s="58"/>
       <c r="E959" s="58"/>
       <c r="F959" s="58"/>
@@ -15872,7 +15821,7 @@
       <c r="O959" s="58"/>
       <c r="P959" s="58"/>
     </row>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C960" s="58"/>
       <c r="E960" s="58"/>
       <c r="F960" s="58"/>
@@ -15887,7 +15836,7 @@
       <c r="O960" s="58"/>
       <c r="P960" s="58"/>
     </row>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C961" s="58"/>
       <c r="E961" s="58"/>
       <c r="F961" s="58"/>
@@ -15902,51 +15851,6 @@
       <c r="O961" s="58"/>
       <c r="P961" s="58"/>
     </row>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="58"/>
-      <c r="E962" s="58"/>
-      <c r="F962" s="58"/>
-      <c r="G962" s="58"/>
-      <c r="H962" s="58"/>
-      <c r="I962" s="58"/>
-      <c r="J962" s="58"/>
-      <c r="K962" s="58"/>
-      <c r="L962" s="58"/>
-      <c r="M962" s="58"/>
-      <c r="N962" s="58"/>
-      <c r="O962" s="58"/>
-      <c r="P962" s="58"/>
-    </row>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="58"/>
-      <c r="E963" s="58"/>
-      <c r="F963" s="58"/>
-      <c r="G963" s="58"/>
-      <c r="H963" s="58"/>
-      <c r="I963" s="58"/>
-      <c r="J963" s="58"/>
-      <c r="K963" s="58"/>
-      <c r="L963" s="58"/>
-      <c r="M963" s="58"/>
-      <c r="N963" s="58"/>
-      <c r="O963" s="58"/>
-      <c r="P963" s="58"/>
-    </row>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="58"/>
-      <c r="E964" s="58"/>
-      <c r="F964" s="58"/>
-      <c r="G964" s="58"/>
-      <c r="H964" s="58"/>
-      <c r="I964" s="58"/>
-      <c r="J964" s="58"/>
-      <c r="K964" s="58"/>
-      <c r="L964" s="58"/>
-      <c r="M964" s="58"/>
-      <c r="N964" s="58"/>
-      <c r="O964" s="58"/>
-      <c r="P964" s="58"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/csv/Planilla_de_Cursos_Prim_2019_Fechas.xlsx
+++ b/csv/Planilla_de_Cursos_Prim_2019_Fechas.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
   <si>
     <t xml:space="preserve">Año</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Patricio Poblete/Nelson Baloian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/102019</t>
   </si>
   <si>
     <t xml:space="preserve">CC3101: Matem. Discretas para la Comp.</t>
@@ -968,17 +965,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P961"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.13"/>
@@ -1141,8 +1138,8 @@
       <c r="J7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>33</v>
+      <c r="K7" s="17" t="n">
+        <v>43565</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>30</v>
@@ -1159,32 +1156,32 @@
         <v>22</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -1197,32 +1194,32 @@
         <v>22</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -1235,35 +1232,35 @@
         <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="18" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
@@ -1272,35 +1269,35 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="K11" s="27" t="s">
         <v>56</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>57</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -1310,41 +1307,41 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="K12" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="L12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="M12" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>65</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
@@ -1352,22 +1349,22 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>26</v>
@@ -1384,35 +1381,35 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="27" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>73</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -1422,19 +1419,19 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="C15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>26</v>
@@ -1442,13 +1439,13 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="36" t="s">
         <v>76</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>77</v>
       </c>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -1458,22 +1455,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
@@ -1481,16 +1478,16 @@
         <v>27</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N16" s="34"/>
       <c r="O16" s="34"/>
@@ -1498,35 +1495,35 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="34" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="34" t="s">
         <v>30</v>
@@ -1538,35 +1535,35 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>83</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" s="34" t="s">
         <v>30</v>
@@ -1578,38 +1575,38 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="34" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>87</v>
-      </c>
       <c r="G19" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="35" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="34"/>
@@ -1618,35 +1615,35 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>90</v>
       </c>
       <c r="C20" s="44" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>92</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
@@ -1656,35 +1653,35 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="44" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>87</v>
-      </c>
       <c r="G21" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="44"/>
       <c r="I21" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -1694,22 +1691,22 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="44" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="44" t="s">
         <v>26</v>
@@ -1726,38 +1723,38 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>98</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>99</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="51" t="s">
+      <c r="L23" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="51" t="s">
+      <c r="M23" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="48" t="s">
-        <v>104</v>
-      </c>
       <c r="N23" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O23" s="48" t="s">
         <v>31</v>
@@ -1766,25 +1763,25 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>106</v>
       </c>
       <c r="C24" s="54" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="F24" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="54" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="57"/>
       <c r="I24" s="56"/>
